--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2883814.5812995</v>
+        <v>-2886505.799637092</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9442596.991607355</v>
+        <v>9442596.991607357</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -914,55 +914,55 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6.602605461619501</v>
+      </c>
+      <c r="U5" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="X5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.602605461619501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>13.47865120333094</v>
-      </c>
-      <c r="V6" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>15.30273751513505</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>15.30273751513505</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>10.75721046822444</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.602605461619501</v>
+      </c>
+      <c r="E8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>11.91464376220975</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>13.47865120333094</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1330,31 +1330,31 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="R10" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10.75721046822444</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>245.5581303237235</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>321.1842384339814</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.57530806745783</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>112.7332658511197</v>
+        <v>112.7332658511199</v>
       </c>
       <c r="T11" t="n">
         <v>204.5990647763963</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0076191481523</v>
+        <v>251.0076191481519</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>135.0827170829624</v>
       </c>
       <c r="H12" t="n">
-        <v>90.40087504041466</v>
+        <v>90.40087504041465</v>
       </c>
       <c r="I12" t="n">
-        <v>11.55768272006077</v>
+        <v>11.55768272006075</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0956005163754</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>54.77769691174292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>92.07026635040559</v>
+        <v>92.07026635040557</v>
       </c>
       <c r="S13" t="n">
-        <v>190.9853140344843</v>
+        <v>190.9853140344841</v>
       </c>
       <c r="T13" t="n">
         <v>219.8471525575619</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2156450560135</v>
+        <v>286.2156450560136</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>53.62647632949108</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>408.6838461701326</v>
+        <v>113.9282990158159</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.7555471543168</v>
       </c>
       <c r="I14" t="n">
         <v>42.13324810561235</v>
@@ -1661,7 +1661,7 @@
         <v>203.9811381183851</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9963263708497</v>
+        <v>250.9963263708498</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.03656490544414</v>
+        <v>140.1872556109694</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>359.6081418543483</v>
       </c>
       <c r="G17" t="n">
-        <v>363.6682519154371</v>
+        <v>363.668251915437</v>
       </c>
       <c r="H17" t="n">
         <v>247.4876432669537</v>
@@ -1898,7 +1898,7 @@
         <v>156.713234231022</v>
       </c>
       <c r="U17" t="n">
-        <v>203.728422483487</v>
+        <v>203.7284224834861</v>
       </c>
       <c r="V17" t="n">
         <v>280.4843545827719</v>
@@ -2014,13 +2014,13 @@
         <v>98.15314413556817</v>
       </c>
       <c r="G19" t="n">
-        <v>118.7643772398864</v>
+        <v>118.7643772398865</v>
       </c>
       <c r="H19" t="n">
-        <v>97.54466070987044</v>
+        <v>97.54466070987046</v>
       </c>
       <c r="I19" t="n">
-        <v>49.27917332316583</v>
+        <v>49.27917332316558</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>334.6624661848987</v>
       </c>
       <c r="F20" t="n">
-        <v>359.6081418543484</v>
+        <v>359.6081418543483</v>
       </c>
       <c r="G20" t="n">
-        <v>363.6682519154371</v>
+        <v>363.6682519154375</v>
       </c>
       <c r="H20" t="n">
         <v>247.4876432669537</v>
@@ -2135,16 +2135,16 @@
         <v>156.7132342310223</v>
       </c>
       <c r="U20" t="n">
-        <v>203.7284224834875</v>
+        <v>203.728422483487</v>
       </c>
       <c r="V20" t="n">
         <v>280.4843545827719</v>
       </c>
       <c r="W20" t="n">
-        <v>301.97306483005</v>
+        <v>301.9730648300499</v>
       </c>
       <c r="X20" t="n">
-        <v>322.463196791106</v>
+        <v>322.4631967911059</v>
       </c>
       <c r="Y20" t="n">
         <v>338.9700347686905</v>
@@ -2257,7 +2257,7 @@
         <v>97.54466070987046</v>
       </c>
       <c r="I22" t="n">
-        <v>49.27917332316505</v>
+        <v>49.27917332316559</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2321,16 +2321,16 @@
         <v>318.0049878836445</v>
       </c>
       <c r="D23" t="n">
-        <v>307.4151377333199</v>
+        <v>307.4151377333208</v>
       </c>
       <c r="E23" t="n">
         <v>334.6624661848987</v>
       </c>
       <c r="F23" t="n">
-        <v>359.6081418543484</v>
+        <v>359.6081418543483</v>
       </c>
       <c r="G23" t="n">
-        <v>363.6682519154371</v>
+        <v>363.668251915437</v>
       </c>
       <c r="H23" t="n">
         <v>247.4876432669537</v>
@@ -2369,7 +2369,7 @@
         <v>62.24868492904935</v>
       </c>
       <c r="T23" t="n">
-        <v>156.7132342310223</v>
+        <v>156.713234231022</v>
       </c>
       <c r="U23" t="n">
         <v>203.7284224834866</v>
@@ -2378,10 +2378,10 @@
         <v>280.4843545827719</v>
       </c>
       <c r="W23" t="n">
-        <v>301.97306483005</v>
+        <v>301.9730648300499</v>
       </c>
       <c r="X23" t="n">
-        <v>322.463196791106</v>
+        <v>322.4631967911059</v>
       </c>
       <c r="Y23" t="n">
         <v>338.9700347686905</v>
@@ -2494,7 +2494,7 @@
         <v>97.54466070987046</v>
       </c>
       <c r="I25" t="n">
-        <v>49.27917332316559</v>
+        <v>49.27917332316594</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>334.6624661848987</v>
       </c>
       <c r="F26" t="n">
-        <v>359.6081418543484</v>
+        <v>359.6081418543483</v>
       </c>
       <c r="G26" t="n">
-        <v>363.6682519154371</v>
+        <v>363.668251915437</v>
       </c>
       <c r="H26" t="n">
         <v>247.4876432669537</v>
@@ -2609,16 +2609,16 @@
         <v>156.7132342310223</v>
       </c>
       <c r="U26" t="n">
-        <v>203.7284224834866</v>
+        <v>203.7284224834861</v>
       </c>
       <c r="V26" t="n">
         <v>280.4843545827719</v>
       </c>
       <c r="W26" t="n">
-        <v>301.97306483005</v>
+        <v>301.9730648300499</v>
       </c>
       <c r="X26" t="n">
-        <v>322.463196791106</v>
+        <v>322.4631967911059</v>
       </c>
       <c r="Y26" t="n">
         <v>338.9700347686905</v>
@@ -2722,13 +2722,13 @@
         <v>99.16605875920609</v>
       </c>
       <c r="F28" t="n">
-        <v>98.15314413556791</v>
+        <v>98.15314413556817</v>
       </c>
       <c r="G28" t="n">
-        <v>118.7643772398864</v>
+        <v>118.7643772398868</v>
       </c>
       <c r="H28" t="n">
-        <v>97.54466070987044</v>
+        <v>97.54466070987046</v>
       </c>
       <c r="I28" t="n">
         <v>49.27917332316558</v>
@@ -2959,7 +2959,7 @@
         <v>99.16605875920609</v>
       </c>
       <c r="F31" t="n">
-        <v>98.1531441355684</v>
+        <v>98.15314413556817</v>
       </c>
       <c r="G31" t="n">
         <v>118.7643772398864</v>
@@ -2968,7 +2968,7 @@
         <v>97.54466070987046</v>
       </c>
       <c r="I31" t="n">
-        <v>49.27917332316558</v>
+        <v>49.27917332316499</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.24868492904966</v>
+        <v>62.24868492904937</v>
       </c>
       <c r="T32" t="n">
-        <v>156.713234231022</v>
+        <v>156.7132342310223</v>
       </c>
       <c r="U32" t="n">
-        <v>203.7284224834861</v>
+        <v>203.7284224834866</v>
       </c>
       <c r="V32" t="n">
         <v>280.4843545827719</v>
@@ -3193,19 +3193,19 @@
         <v>101.3475691308493</v>
       </c>
       <c r="E34" t="n">
-        <v>99.16605875920611</v>
+        <v>99.16605875920612</v>
       </c>
       <c r="F34" t="n">
-        <v>98.15314413556818</v>
+        <v>98.1531441355682</v>
       </c>
       <c r="G34" t="n">
         <v>118.7643772398864</v>
       </c>
       <c r="H34" t="n">
-        <v>97.54466070987046</v>
+        <v>97.54466070987047</v>
       </c>
       <c r="I34" t="n">
-        <v>49.27917332316532</v>
+        <v>49.27917332316502</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>334.6624661848987</v>
       </c>
       <c r="F35" t="n">
-        <v>359.6081418543483</v>
+        <v>359.6081418543484</v>
       </c>
       <c r="G35" t="n">
         <v>363.6682519154371</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.24868492904935</v>
+        <v>62.24868492904966</v>
       </c>
       <c r="T35" t="n">
-        <v>156.7132342310223</v>
+        <v>156.713234231022</v>
       </c>
       <c r="U35" t="n">
-        <v>203.7284224834861</v>
+        <v>203.7284224834866</v>
       </c>
       <c r="V35" t="n">
         <v>280.4843545827719</v>
       </c>
       <c r="W35" t="n">
-        <v>301.9730648300499</v>
+        <v>301.97306483005</v>
       </c>
       <c r="X35" t="n">
-        <v>322.4631967911059</v>
+        <v>322.463196791106</v>
       </c>
       <c r="Y35" t="n">
         <v>338.9700347686905</v>
@@ -3430,19 +3430,19 @@
         <v>101.3475691308493</v>
       </c>
       <c r="E37" t="n">
-        <v>99.16605875920609</v>
+        <v>99.16605875920612</v>
       </c>
       <c r="F37" t="n">
-        <v>98.15314413556817</v>
+        <v>98.1531441355682</v>
       </c>
       <c r="G37" t="n">
         <v>118.7643772398864</v>
       </c>
       <c r="H37" t="n">
-        <v>97.54466070987044</v>
+        <v>97.54466070987047</v>
       </c>
       <c r="I37" t="n">
-        <v>49.27917332316532</v>
+        <v>49.27917332316496</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95529247561518</v>
+        <v>41.9552924756152</v>
       </c>
       <c r="S37" t="n">
         <v>142.6139258838986</v>
@@ -3478,13 +3478,13 @@
         <v>172.3087021893879</v>
       </c>
       <c r="U37" t="n">
-        <v>238.9442873837891</v>
+        <v>238.9442873837892</v>
       </c>
       <c r="V37" t="n">
-        <v>204.8697394364649</v>
+        <v>204.869739436465</v>
       </c>
       <c r="W37" t="n">
-        <v>239.2550944492279</v>
+        <v>239.255094449228</v>
       </c>
       <c r="X37" t="n">
         <v>178.4417515016741</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.24868492904936</v>
+        <v>62.24868492904966</v>
       </c>
       <c r="T38" t="n">
-        <v>156.7132342310223</v>
+        <v>156.713234231022</v>
       </c>
       <c r="U38" t="n">
-        <v>203.7284224834861</v>
+        <v>203.7284224834866</v>
       </c>
       <c r="V38" t="n">
         <v>280.4843545827719</v>
@@ -3667,19 +3667,19 @@
         <v>101.3475691308493</v>
       </c>
       <c r="E40" t="n">
-        <v>99.16605875920611</v>
+        <v>99.16605875920612</v>
       </c>
       <c r="F40" t="n">
-        <v>98.15314413556818</v>
+        <v>98.1531441355682</v>
       </c>
       <c r="G40" t="n">
         <v>118.7643772398864</v>
       </c>
       <c r="H40" t="n">
-        <v>97.54466070987047</v>
+        <v>97.54466070987048</v>
       </c>
       <c r="I40" t="n">
-        <v>49.2791733231656</v>
+        <v>49.27917332316562</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>335.4659377761175</v>
       </c>
       <c r="C41" t="n">
-        <v>318.0049878836445</v>
+        <v>318.0049878836444</v>
       </c>
       <c r="D41" t="n">
         <v>307.4151377333199</v>
@@ -3749,10 +3749,10 @@
         <v>334.6624661848987</v>
       </c>
       <c r="F41" t="n">
-        <v>359.6081418543484</v>
+        <v>359.6081418543483</v>
       </c>
       <c r="G41" t="n">
-        <v>363.6682519154371</v>
+        <v>363.668251915437</v>
       </c>
       <c r="H41" t="n">
         <v>247.4876432669537</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.24868492904937</v>
+        <v>62.24868492904933</v>
       </c>
       <c r="T41" t="n">
-        <v>156.7132342310205</v>
+        <v>156.7132342310223</v>
       </c>
       <c r="U41" t="n">
-        <v>203.7284224834866</v>
+        <v>203.7284224834861</v>
       </c>
       <c r="V41" t="n">
-        <v>280.4843545827719</v>
+        <v>280.4843545827718</v>
       </c>
       <c r="W41" t="n">
-        <v>301.97306483005</v>
+        <v>301.9730648300499</v>
       </c>
       <c r="X41" t="n">
-        <v>322.463196791106</v>
+        <v>322.4631967911059</v>
       </c>
       <c r="Y41" t="n">
         <v>338.9700347686905</v>
@@ -3898,25 +3898,25 @@
         <v>132.5640762945742</v>
       </c>
       <c r="C43" t="n">
-        <v>119.9789172112648</v>
+        <v>119.9789172112647</v>
       </c>
       <c r="D43" t="n">
         <v>101.3475691308493</v>
       </c>
       <c r="E43" t="n">
-        <v>99.16605875920612</v>
+        <v>99.16605875920607</v>
       </c>
       <c r="F43" t="n">
-        <v>98.1531441355682</v>
+        <v>98.15314413556814</v>
       </c>
       <c r="G43" t="n">
         <v>118.7643772398864</v>
       </c>
       <c r="H43" t="n">
-        <v>97.54466070987047</v>
+        <v>97.54466070987041</v>
       </c>
       <c r="I43" t="n">
-        <v>49.27917332316562</v>
+        <v>49.27917332316581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9552924756152</v>
+        <v>41.95529247561516</v>
       </c>
       <c r="S43" t="n">
         <v>142.6139258838986</v>
       </c>
       <c r="T43" t="n">
-        <v>172.3087021893885</v>
+        <v>172.3087021893879</v>
       </c>
       <c r="U43" t="n">
-        <v>238.9442873837885</v>
+        <v>238.9442873837891</v>
       </c>
       <c r="V43" t="n">
-        <v>204.869739436465</v>
+        <v>204.8697394364649</v>
       </c>
       <c r="W43" t="n">
-        <v>239.255094449228</v>
+        <v>239.2550944492279</v>
       </c>
       <c r="X43" t="n">
-        <v>178.4417515016741</v>
+        <v>178.441751501674</v>
       </c>
       <c r="Y43" t="n">
         <v>171.3167494647317</v>
@@ -3977,7 +3977,7 @@
         <v>335.4659377761175</v>
       </c>
       <c r="C44" t="n">
-        <v>318.0049878836445</v>
+        <v>318.0049878836444</v>
       </c>
       <c r="D44" t="n">
         <v>307.4151377333199</v>
@@ -3986,10 +3986,10 @@
         <v>334.6624661848987</v>
       </c>
       <c r="F44" t="n">
-        <v>359.6081418543484</v>
+        <v>359.6081418543483</v>
       </c>
       <c r="G44" t="n">
-        <v>363.6682519154371</v>
+        <v>363.668251915437</v>
       </c>
       <c r="H44" t="n">
         <v>247.4876432669537</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.24868492904937</v>
+        <v>62.24868492904933</v>
       </c>
       <c r="T44" t="n">
         <v>156.713234231022</v>
       </c>
       <c r="U44" t="n">
-        <v>203.7284224834875</v>
+        <v>203.7284224834866</v>
       </c>
       <c r="V44" t="n">
-        <v>280.4843545827719</v>
+        <v>280.4843545827718</v>
       </c>
       <c r="W44" t="n">
-        <v>301.97306483005</v>
+        <v>301.9730648300499</v>
       </c>
       <c r="X44" t="n">
-        <v>322.463196791106</v>
+        <v>322.4631967911059</v>
       </c>
       <c r="Y44" t="n">
         <v>338.9700347686905</v>
@@ -4135,25 +4135,25 @@
         <v>132.5640762945742</v>
       </c>
       <c r="C46" t="n">
-        <v>119.9789172112648</v>
+        <v>119.9789172112647</v>
       </c>
       <c r="D46" t="n">
         <v>101.3475691308493</v>
       </c>
       <c r="E46" t="n">
-        <v>99.16605875920612</v>
+        <v>99.16605875920607</v>
       </c>
       <c r="F46" t="n">
-        <v>98.1531441355682</v>
+        <v>98.15314413556814</v>
       </c>
       <c r="G46" t="n">
         <v>118.7643772398864</v>
       </c>
       <c r="H46" t="n">
-        <v>97.54466070987048</v>
+        <v>97.54466070987041</v>
       </c>
       <c r="I46" t="n">
-        <v>49.27917332316562</v>
+        <v>49.27917332316557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95529247561521</v>
+        <v>41.95529247561516</v>
       </c>
       <c r="S46" t="n">
-        <v>142.6139258838986</v>
+        <v>142.613925883898</v>
       </c>
       <c r="T46" t="n">
         <v>172.3087021893879</v>
       </c>
       <c r="U46" t="n">
-        <v>238.9442873837891</v>
+        <v>238.9442873837896</v>
       </c>
       <c r="V46" t="n">
-        <v>204.869739436465</v>
+        <v>204.8697394364649</v>
       </c>
       <c r="W46" t="n">
-        <v>239.255094449228</v>
+        <v>239.2550944492279</v>
       </c>
       <c r="X46" t="n">
-        <v>178.4417515016741</v>
+        <v>178.441751501674</v>
       </c>
       <c r="Y46" t="n">
         <v>171.3167494647317</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="C5" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="D5" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E5" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F5" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G5" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H5" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I5" t="n">
         <v>1.224219001210804</v>
@@ -4568,19 +4568,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L5" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7618196405891</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N5" t="n">
-        <v>30.9115297805728</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O5" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
@@ -4595,22 +4595,22 @@
         <v>61.2109500605402</v>
       </c>
       <c r="T5" t="n">
-        <v>61.2109500605402</v>
+        <v>54.54165161445989</v>
       </c>
       <c r="U5" t="n">
-        <v>61.2109500605402</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="V5" t="n">
-        <v>61.2109500605402</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="W5" t="n">
-        <v>61.2109500605402</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="X5" t="n">
-        <v>45.75363943919166</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.08434099311135</v>
+        <v>23.62703037176281</v>
       </c>
     </row>
     <row r="6">
@@ -4671,16 +4671,16 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S6" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T6" t="n">
         <v>45.75363943919166</v>
       </c>
       <c r="U6" t="n">
-        <v>32.13884024390788</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V6" t="n">
-        <v>16.68152962255934</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W6" t="n">
         <v>16.68152962255934</v>
@@ -4747,28 +4747,28 @@
         <v>43.00470940373054</v>
       </c>
       <c r="R7" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="S7" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="T7" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="U7" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="V7" t="n">
         <v>27.54739878238201</v>
       </c>
-      <c r="S7" t="n">
+      <c r="W7" t="n">
         <v>27.54739878238201</v>
       </c>
-      <c r="T7" t="n">
-        <v>27.54739878238201</v>
-      </c>
-      <c r="U7" t="n">
-        <v>16.68152962255934</v>
-      </c>
-      <c r="V7" t="n">
-        <v>16.68152962255934</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.224219001210804</v>
-      </c>
       <c r="X7" t="n">
-        <v>1.224219001210804</v>
+        <v>12.09008816103347</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.224219001210804</v>
+        <v>12.09008816103347</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.62703037176281</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C8" t="n">
-        <v>23.62703037176281</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="D8" t="n">
-        <v>23.62703037176281</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="E8" t="n">
         <v>23.62703037176281</v>
@@ -4805,49 +4805,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M8" t="n">
-        <v>15.7618196405891</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9115297805728</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O8" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X8" t="n">
-        <v>39.08434099311135</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.08434099311135</v>
+        <v>45.75363943919166</v>
       </c>
     </row>
     <row r="9">
@@ -4896,7 +4896,7 @@
         <v>16.37392914119451</v>
       </c>
       <c r="O9" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="P9" t="n">
         <v>46.0612399205565</v>
@@ -4908,25 +4908,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S9" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T9" t="n">
-        <v>32.13884024390788</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U9" t="n">
-        <v>16.68152962255934</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V9" t="n">
-        <v>16.68152962255934</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="W9" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X9" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
     </row>
     <row r="10">
@@ -4978,34 +4978,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>45.75363943919166</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R10" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="S10" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="T10" t="n">
         <v>32.13884024390788</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
+        <v>32.13884024390788</v>
+      </c>
+      <c r="V10" t="n">
+        <v>32.13884024390788</v>
+      </c>
+      <c r="W10" t="n">
+        <v>32.13884024390788</v>
+      </c>
+      <c r="X10" t="n">
         <v>16.68152962255934</v>
       </c>
-      <c r="T10" t="n">
+      <c r="Y10" t="n">
         <v>16.68152962255934</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>727.7747385295952</v>
+        <v>1114.374578593719</v>
       </c>
       <c r="C11" t="n">
-        <v>358.8122215891835</v>
+        <v>745.4120616533078</v>
       </c>
       <c r="D11" t="n">
-        <v>110.773706110675</v>
+        <v>387.1463630465574</v>
       </c>
       <c r="E11" t="n">
-        <v>110.773706110675</v>
+        <v>62.7178393758691</v>
       </c>
       <c r="F11" t="n">
-        <v>110.773706110675</v>
+        <v>62.7178393758691</v>
       </c>
       <c r="G11" t="n">
-        <v>110.773706110675</v>
+        <v>62.7178393758691</v>
       </c>
       <c r="H11" t="n">
-        <v>110.773706110675</v>
+        <v>62.7178393758691</v>
       </c>
       <c r="I11" t="n">
-        <v>62.71783937586907</v>
+        <v>62.7178393758691</v>
       </c>
       <c r="J11" t="n">
         <v>238.5235299308283</v>
       </c>
       <c r="K11" t="n">
-        <v>552.7492053947949</v>
+        <v>552.7492053947954</v>
       </c>
       <c r="L11" t="n">
-        <v>979.4757034006852</v>
+        <v>979.4757034006857</v>
       </c>
       <c r="M11" t="n">
-        <v>1485.960591269999</v>
+        <v>1485.96059127</v>
       </c>
       <c r="N11" t="n">
-        <v>2005.25474251752</v>
+        <v>2005.254742517521</v>
       </c>
       <c r="O11" t="n">
-        <v>2482.274222844647</v>
+        <v>2482.274222844648</v>
       </c>
       <c r="P11" t="n">
-        <v>2854.898312209171</v>
+        <v>2854.898312209172</v>
       </c>
       <c r="Q11" t="n">
-        <v>3086.550738414291</v>
+        <v>3086.550738414292</v>
       </c>
       <c r="R11" t="n">
-        <v>3135.891968793454</v>
+        <v>3135.891968793455</v>
       </c>
       <c r="S11" t="n">
-        <v>3022.019983085252</v>
+        <v>3022.019983085253</v>
       </c>
       <c r="T11" t="n">
-        <v>2815.354261088892</v>
+        <v>2815.354261088893</v>
       </c>
       <c r="U11" t="n">
-        <v>2561.811211444293</v>
+        <v>2561.811211444295</v>
       </c>
       <c r="V11" t="n">
-        <v>2230.748324100723</v>
+        <v>2230.748324100724</v>
       </c>
       <c r="W11" t="n">
-        <v>1877.979668830608</v>
+        <v>1877.97966883061</v>
       </c>
       <c r="X11" t="n">
-        <v>1504.513910569529</v>
+        <v>1504.51391056953</v>
       </c>
       <c r="Y11" t="n">
-        <v>1114.374578593717</v>
+        <v>1114.374578593719</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>165.7062815581675</v>
       </c>
       <c r="H12" t="n">
-        <v>74.39226636582944</v>
+        <v>74.39226636582946</v>
       </c>
       <c r="I12" t="n">
-        <v>62.71783937586907</v>
+        <v>62.7178393758691</v>
       </c>
       <c r="J12" t="n">
-        <v>148.6086573238573</v>
+        <v>148.6086573238574</v>
       </c>
       <c r="K12" t="n">
-        <v>373.5645704100967</v>
+        <v>373.564570410097</v>
       </c>
       <c r="L12" t="n">
-        <v>722.3680979936478</v>
+        <v>722.368097993648</v>
       </c>
       <c r="M12" t="n">
         <v>1148.762230856385</v>
@@ -5136,7 +5136,7 @@
         <v>1992.202942721734</v>
       </c>
       <c r="P12" t="n">
-        <v>2369.65535380463</v>
+        <v>2286.964800236415</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.776653074335</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>285.8221802123523</v>
+        <v>231.6540223037759</v>
       </c>
       <c r="C13" t="n">
-        <v>285.8221802123523</v>
+        <v>62.7178393758691</v>
       </c>
       <c r="D13" t="n">
-        <v>285.8221802123523</v>
+        <v>62.7178393758691</v>
       </c>
       <c r="E13" t="n">
-        <v>285.8221802123523</v>
+        <v>62.7178393758691</v>
       </c>
       <c r="F13" t="n">
-        <v>285.8221802123523</v>
+        <v>62.7178393758691</v>
       </c>
       <c r="G13" t="n">
-        <v>118.0488463574276</v>
+        <v>62.7178393758691</v>
       </c>
       <c r="H13" t="n">
-        <v>62.71783937586907</v>
+        <v>62.7178393758691</v>
       </c>
       <c r="I13" t="n">
-        <v>62.71783937586907</v>
+        <v>62.7178393758691</v>
       </c>
       <c r="J13" t="n">
-        <v>102.9555023542998</v>
+        <v>102.9555023542999</v>
       </c>
       <c r="K13" t="n">
-        <v>298.9151798630975</v>
+        <v>298.9151798630977</v>
       </c>
       <c r="L13" t="n">
-        <v>605.202535121684</v>
+        <v>605.2025351216841</v>
       </c>
       <c r="M13" t="n">
-        <v>938.5287296802881</v>
+        <v>938.5287296802883</v>
       </c>
       <c r="N13" t="n">
         <v>1269.363788774819</v>
@@ -5215,7 +5215,7 @@
         <v>1558.92721754012</v>
       </c>
       <c r="P13" t="n">
-        <v>1783.178072248051</v>
+        <v>1783.178072248052</v>
       </c>
       <c r="Q13" t="n">
         <v>1855.002660058738</v>
@@ -5224,25 +5224,25 @@
         <v>1762.002391017924</v>
       </c>
       <c r="S13" t="n">
-        <v>1569.087932397233</v>
+        <v>1569.087932397234</v>
       </c>
       <c r="T13" t="n">
         <v>1347.020101531009</v>
       </c>
       <c r="U13" t="n">
-        <v>1057.913389353217</v>
+        <v>1057.913389353218</v>
       </c>
       <c r="V13" t="n">
-        <v>803.2289011473304</v>
+        <v>803.2289011473308</v>
       </c>
       <c r="W13" t="n">
-        <v>513.8117311103697</v>
+        <v>513.8117311103701</v>
       </c>
       <c r="X13" t="n">
-        <v>285.8221802123523</v>
+        <v>285.8221802123528</v>
       </c>
       <c r="Y13" t="n">
-        <v>285.8221802123523</v>
+        <v>231.6540223037759</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5261,25 @@
         <v>922.2329274847089</v>
       </c>
       <c r="E14" t="n">
-        <v>536.4446748864648</v>
+        <v>536.4446748864647</v>
       </c>
       <c r="F14" t="n">
-        <v>536.4446748864648</v>
+        <v>536.4446748864647</v>
       </c>
       <c r="G14" t="n">
-        <v>123.6327090580479</v>
+        <v>421.3655849714991</v>
       </c>
       <c r="H14" t="n">
         <v>123.6327090580479</v>
       </c>
       <c r="I14" t="n">
-        <v>81.07387258773234</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J14" t="n">
-        <v>268.7405100675293</v>
+        <v>268.7405100675294</v>
       </c>
       <c r="K14" t="n">
-        <v>600.7426703385224</v>
+        <v>600.7426703385225</v>
       </c>
       <c r="L14" t="n">
         <v>1049.522469651841</v>
@@ -5288,13 +5288,13 @@
         <v>1580.545904441917</v>
       </c>
       <c r="N14" t="n">
-        <v>2261.71296798892</v>
+        <v>2557.749117121502</v>
       </c>
       <c r="O14" t="n">
-        <v>2762.278434220786</v>
+        <v>3080.859155310554</v>
       </c>
       <c r="P14" t="n">
-        <v>3473.579198889135</v>
+        <v>3473.579198889136</v>
       </c>
       <c r="Q14" t="n">
         <v>3930.514690545769</v>
@@ -5306,13 +5306,13 @@
         <v>3943.070812400342</v>
       </c>
       <c r="T14" t="n">
-        <v>3737.029258745407</v>
+        <v>3737.029258745408</v>
       </c>
       <c r="U14" t="n">
-        <v>3483.497615946569</v>
+        <v>3483.49761594657</v>
       </c>
       <c r="V14" t="n">
-        <v>3152.434728602998</v>
+        <v>3152.434728602999</v>
       </c>
       <c r="W14" t="n">
         <v>2799.666073332884</v>
@@ -5349,10 +5349,10 @@
         <v>180.6988623670001</v>
       </c>
       <c r="H15" t="n">
-        <v>90.12164802936495</v>
+        <v>90.12164802936496</v>
       </c>
       <c r="I15" t="n">
-        <v>81.07387258773234</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J15" t="n">
         <v>174.0289892685331</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.07387258773234</v>
+        <v>228.9869661701255</v>
       </c>
       <c r="C16" t="n">
-        <v>81.07387258773234</v>
+        <v>228.9869661701255</v>
       </c>
       <c r="D16" t="n">
-        <v>81.07387258773234</v>
+        <v>228.9869661701255</v>
       </c>
       <c r="E16" t="n">
-        <v>81.07387258773234</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="F16" t="n">
-        <v>81.07387258773234</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="G16" t="n">
-        <v>81.07387258773234</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="H16" t="n">
-        <v>81.07387258773234</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="I16" t="n">
-        <v>81.07387258773234</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J16" t="n">
-        <v>125.7434495692565</v>
+        <v>125.7434495692563</v>
       </c>
       <c r="K16" t="n">
-        <v>328.9861232153224</v>
+        <v>328.986123215322</v>
       </c>
       <c r="L16" t="n">
-        <v>644.5932060818027</v>
+        <v>644.5932060818022</v>
       </c>
       <c r="M16" t="n">
-        <v>987.7457466806974</v>
+        <v>987.7457466806972</v>
       </c>
       <c r="N16" t="n">
         <v>1328.173503269644</v>
@@ -5470,16 +5470,16 @@
         <v>1142.681463806919</v>
       </c>
       <c r="V16" t="n">
-        <v>887.9969756010324</v>
+        <v>887.9969756010321</v>
       </c>
       <c r="W16" t="n">
-        <v>598.5798055640719</v>
+        <v>598.5798055640715</v>
       </c>
       <c r="X16" t="n">
-        <v>370.5902546660545</v>
+        <v>370.5902546660542</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.7976755225244</v>
+        <v>370.5902546660542</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>698.4030596406523</v>
       </c>
       <c r="G17" t="n">
-        <v>331.0613910392008</v>
+        <v>331.0613910392007</v>
       </c>
       <c r="H17" t="n">
         <v>81.07387258773235</v>
@@ -5519,16 +5519,16 @@
         <v>600.7426703385225</v>
       </c>
       <c r="L17" t="n">
-        <v>1049.522469651841</v>
+        <v>1463.007072056787</v>
       </c>
       <c r="M17" t="n">
-        <v>1580.545904441917</v>
+        <v>2036.063931566968</v>
       </c>
       <c r="N17" t="n">
-        <v>2124.775661953638</v>
+        <v>2580.293689078689</v>
       </c>
       <c r="O17" t="n">
-        <v>2762.278434220786</v>
+        <v>3080.859155310554</v>
       </c>
       <c r="P17" t="n">
         <v>3473.579198889136</v>
@@ -5546,10 +5546,10 @@
         <v>3832.519973669373</v>
       </c>
       <c r="U17" t="n">
-        <v>3626.733688332518</v>
+        <v>3626.733688332519</v>
       </c>
       <c r="V17" t="n">
-        <v>3343.41615845093</v>
+        <v>3343.416158450931</v>
       </c>
       <c r="W17" t="n">
         <v>3038.392860642799</v>
@@ -5604,16 +5604,16 @@
         <v>1221.437051126042</v>
       </c>
       <c r="N18" t="n">
-        <v>1692.972121073454</v>
+        <v>1694.922825772559</v>
       </c>
       <c r="O18" t="n">
-        <v>2102.114793023233</v>
+        <v>2104.065497722339</v>
       </c>
       <c r="P18" t="n">
-        <v>2411.154791674779</v>
+        <v>2413.105496373884</v>
       </c>
       <c r="Q18" t="n">
-        <v>2567.820650171993</v>
+        <v>2569.771354871099</v>
       </c>
       <c r="R18" t="n">
         <v>2569.771354871099</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>772.2192266380462</v>
+        <v>772.2192266380464</v>
       </c>
       <c r="C19" t="n">
-        <v>651.0284011721221</v>
+        <v>651.0284011721224</v>
       </c>
       <c r="D19" t="n">
-        <v>548.6571192217693</v>
+        <v>548.6571192217696</v>
       </c>
       <c r="E19" t="n">
-        <v>448.4893831013591</v>
+        <v>448.4893831013593</v>
       </c>
       <c r="F19" t="n">
-        <v>349.344793065432</v>
+        <v>349.3447930654319</v>
       </c>
       <c r="G19" t="n">
-        <v>229.3807756514054</v>
+        <v>229.3807756514051</v>
       </c>
       <c r="H19" t="n">
-        <v>130.8508153384049</v>
+        <v>130.8508153384047</v>
       </c>
       <c r="I19" t="n">
         <v>81.07387258773235</v>
       </c>
       <c r="J19" t="n">
-        <v>172.5386744177457</v>
+        <v>172.538674417746</v>
       </c>
       <c r="K19" t="n">
-        <v>422.5765729123011</v>
+        <v>422.5765729123008</v>
       </c>
       <c r="L19" t="n">
-        <v>784.9788806272709</v>
+        <v>784.9788806272705</v>
       </c>
       <c r="M19" t="n">
         <v>1174.926646074655</v>
@@ -5716,7 +5716,7 @@
         <v>1079.16955568785</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.1223340063029</v>
+        <v>906.1223340063032</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1710.206843249306</v>
       </c>
       <c r="D20" t="n">
-        <v>1399.686502104539</v>
+        <v>1399.686502104538</v>
       </c>
       <c r="E20" t="n">
         <v>1061.643606968277</v>
       </c>
       <c r="F20" t="n">
-        <v>698.4030596406526</v>
+        <v>698.4030596406524</v>
       </c>
       <c r="G20" t="n">
-        <v>331.0613910392008</v>
+        <v>331.0613910392007</v>
       </c>
       <c r="H20" t="n">
         <v>81.07387258773235</v>
@@ -5756,31 +5756,31 @@
         <v>600.7426703385225</v>
       </c>
       <c r="L20" t="n">
-        <v>1049.522469651841</v>
+        <v>1396.65161644043</v>
       </c>
       <c r="M20" t="n">
-        <v>1580.545904441917</v>
+        <v>1927.675051230506</v>
       </c>
       <c r="N20" t="n">
-        <v>2124.775661953638</v>
+        <v>2471.904808742227</v>
       </c>
       <c r="O20" t="n">
-        <v>2762.278434220786</v>
+        <v>2972.470274974092</v>
       </c>
       <c r="P20" t="n">
-        <v>3473.579198889136</v>
+        <v>3683.771039642441</v>
       </c>
       <c r="Q20" t="n">
-        <v>3930.51469054577</v>
+        <v>3930.514690545769</v>
       </c>
       <c r="R20" t="n">
-        <v>4053.693629386618</v>
+        <v>4053.693629386617</v>
       </c>
       <c r="S20" t="n">
-        <v>3990.816169862326</v>
+        <v>3990.816169862325</v>
       </c>
       <c r="T20" t="n">
-        <v>3832.519973669374</v>
+        <v>3832.519973669373</v>
       </c>
       <c r="U20" t="n">
         <v>3626.733688332518</v>
@@ -5844,13 +5844,13 @@
         <v>1692.972121073454</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.114793023233</v>
+        <v>2104.065497722339</v>
       </c>
       <c r="P21" t="n">
-        <v>2411.154791674779</v>
+        <v>2413.105496373884</v>
       </c>
       <c r="Q21" t="n">
-        <v>2567.820650171993</v>
+        <v>2569.771354871099</v>
       </c>
       <c r="R21" t="n">
         <v>2569.771354871099</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>772.2192266380458</v>
+        <v>772.2192266380463</v>
       </c>
       <c r="C22" t="n">
-        <v>651.0284011721218</v>
+        <v>651.0284011721222</v>
       </c>
       <c r="D22" t="n">
-        <v>548.657119221769</v>
+        <v>548.6571192217694</v>
       </c>
       <c r="E22" t="n">
-        <v>448.4893831013587</v>
+        <v>448.4893831013593</v>
       </c>
       <c r="F22" t="n">
-        <v>349.3447930654312</v>
+        <v>349.3447930654318</v>
       </c>
       <c r="G22" t="n">
-        <v>229.3807756514046</v>
+        <v>229.3807756514051</v>
       </c>
       <c r="H22" t="n">
-        <v>130.8508153384041</v>
+        <v>130.8508153384047</v>
       </c>
       <c r="I22" t="n">
         <v>81.07387258773235</v>
@@ -5911,34 +5911,34 @@
         <v>172.538674417746</v>
       </c>
       <c r="K22" t="n">
-        <v>422.5765729123013</v>
+        <v>422.5765729123014</v>
       </c>
       <c r="L22" t="n">
-        <v>784.978880627271</v>
+        <v>784.9788806272711</v>
       </c>
       <c r="M22" t="n">
         <v>1174.926646074655</v>
       </c>
       <c r="N22" t="n">
-        <v>1562.149627512091</v>
+        <v>1562.149627512092</v>
       </c>
       <c r="O22" t="n">
-        <v>1907.368689885055</v>
+        <v>1907.368689885056</v>
       </c>
       <c r="P22" t="n">
         <v>2185.996379817862</v>
       </c>
       <c r="Q22" t="n">
-        <v>2309.865306516191</v>
+        <v>2309.865306516192</v>
       </c>
       <c r="R22" t="n">
         <v>2267.486223207489</v>
       </c>
       <c r="S22" t="n">
-        <v>2123.431752617692</v>
+        <v>2123.431752617693</v>
       </c>
       <c r="T22" t="n">
-        <v>1949.382558486997</v>
+        <v>1949.382558486998</v>
       </c>
       <c r="U22" t="n">
         <v>1708.024692442766</v>
@@ -5947,13 +5947,13 @@
         <v>1501.085561698862</v>
       </c>
       <c r="W22" t="n">
-        <v>1259.413749123884</v>
+        <v>1259.413749123885</v>
       </c>
       <c r="X22" t="n">
         <v>1079.16955568785</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.1223340063026</v>
+        <v>906.122334006303</v>
       </c>
     </row>
     <row r="23">
@@ -5969,22 +5969,22 @@
         <v>1710.206843249307</v>
       </c>
       <c r="D23" t="n">
-        <v>1399.686502104539</v>
+        <v>1399.686502104538</v>
       </c>
       <c r="E23" t="n">
-        <v>1061.643606968278</v>
+        <v>1061.643606968277</v>
       </c>
       <c r="F23" t="n">
-        <v>698.4030596406533</v>
+        <v>698.4030596406523</v>
       </c>
       <c r="G23" t="n">
-        <v>331.0613910392008</v>
+        <v>331.0613910392007</v>
       </c>
       <c r="H23" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="I23" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J23" t="n">
         <v>268.7405100675294</v>
@@ -5996,25 +5996,25 @@
         <v>1049.522469651841</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.545904441917</v>
+        <v>2025.564302599821</v>
       </c>
       <c r="N23" t="n">
-        <v>2124.775661953638</v>
+        <v>2645.352944752941</v>
       </c>
       <c r="O23" t="n">
-        <v>3002.333307635621</v>
+        <v>3145.918410984807</v>
       </c>
       <c r="P23" t="n">
-        <v>3473.579198889136</v>
+        <v>3538.638454563388</v>
       </c>
       <c r="Q23" t="n">
-        <v>3930.51469054577</v>
+        <v>3995.573946220022</v>
       </c>
       <c r="R23" t="n">
-        <v>4053.693629386618</v>
+        <v>4053.693629386617</v>
       </c>
       <c r="S23" t="n">
-        <v>3990.816169862326</v>
+        <v>3990.816169862325</v>
       </c>
       <c r="T23" t="n">
         <v>3832.519973669374</v>
@@ -6023,7 +6023,7 @@
         <v>3626.733688332519</v>
       </c>
       <c r="V23" t="n">
-        <v>3343.416158450932</v>
+        <v>3343.416158450931</v>
       </c>
       <c r="W23" t="n">
         <v>3038.3928606428</v>
@@ -6060,10 +6060,10 @@
         <v>180.6988623670001</v>
       </c>
       <c r="H24" t="n">
-        <v>90.12164802936498</v>
+        <v>90.12164802936496</v>
       </c>
       <c r="I24" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J24" t="n">
         <v>174.0289892685331</v>
@@ -6121,55 +6121,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>772.2192266380463</v>
+        <v>772.2192266380466</v>
       </c>
       <c r="C25" t="n">
-        <v>651.0284011721222</v>
+        <v>651.0284011721226</v>
       </c>
       <c r="D25" t="n">
-        <v>548.6571192217694</v>
+        <v>548.6571192217698</v>
       </c>
       <c r="E25" t="n">
-        <v>448.4893831013593</v>
+        <v>448.4893831013596</v>
       </c>
       <c r="F25" t="n">
-        <v>349.3447930654318</v>
+        <v>349.3447930654322</v>
       </c>
       <c r="G25" t="n">
-        <v>229.3807756514051</v>
+        <v>229.3807756514055</v>
       </c>
       <c r="H25" t="n">
-        <v>130.8508153384047</v>
+        <v>130.850815338405</v>
       </c>
       <c r="I25" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J25" t="n">
-        <v>172.5386744177461</v>
+        <v>172.5386744177456</v>
       </c>
       <c r="K25" t="n">
-        <v>422.5765729123014</v>
+        <v>422.5765729123009</v>
       </c>
       <c r="L25" t="n">
-        <v>784.9788806272711</v>
+        <v>784.9788806272707</v>
       </c>
       <c r="M25" t="n">
         <v>1174.926646074655</v>
       </c>
       <c r="N25" t="n">
-        <v>1562.149627512092</v>
+        <v>1562.149627512091</v>
       </c>
       <c r="O25" t="n">
-        <v>1907.368689885056</v>
+        <v>1907.368689885055</v>
       </c>
       <c r="P25" t="n">
         <v>2185.996379817862</v>
       </c>
       <c r="Q25" t="n">
-        <v>2309.865306516192</v>
+        <v>2309.865306516191</v>
       </c>
       <c r="R25" t="n">
-        <v>2267.486223207489</v>
+        <v>2267.48622320749</v>
       </c>
       <c r="S25" t="n">
         <v>2123.431752617693</v>
@@ -6178,19 +6178,19 @@
         <v>1949.382558486998</v>
       </c>
       <c r="U25" t="n">
-        <v>1708.024692442766</v>
+        <v>1708.024692442767</v>
       </c>
       <c r="V25" t="n">
-        <v>1501.085561698862</v>
+        <v>1501.085561698863</v>
       </c>
       <c r="W25" t="n">
         <v>1259.413749123885</v>
       </c>
       <c r="X25" t="n">
-        <v>1079.16955568785</v>
+        <v>1079.169555687851</v>
       </c>
       <c r="Y25" t="n">
-        <v>906.122334006303</v>
+        <v>906.1223340063034</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>698.4030596406523</v>
       </c>
       <c r="G26" t="n">
-        <v>331.0613910392008</v>
+        <v>331.0613910392007</v>
       </c>
       <c r="H26" t="n">
         <v>81.07387258773235</v>
@@ -6236,16 +6236,16 @@
         <v>1580.545904441917</v>
       </c>
       <c r="N26" t="n">
-        <v>2124.775661953638</v>
+        <v>2557.749117121502</v>
       </c>
       <c r="O26" t="n">
-        <v>2762.278434220786</v>
+        <v>3058.314583353367</v>
       </c>
       <c r="P26" t="n">
-        <v>3473.579198889136</v>
+        <v>3748.830295316694</v>
       </c>
       <c r="Q26" t="n">
-        <v>3930.514690545769</v>
+        <v>3995.573946220022</v>
       </c>
       <c r="R26" t="n">
         <v>4053.693629386617</v>
@@ -6257,7 +6257,7 @@
         <v>3832.519973669373</v>
       </c>
       <c r="U26" t="n">
-        <v>3626.733688332518</v>
+        <v>3626.733688332519</v>
       </c>
       <c r="V26" t="n">
         <v>3343.416158450931</v>
@@ -6315,16 +6315,16 @@
         <v>1221.437051126042</v>
       </c>
       <c r="N27" t="n">
-        <v>1692.972121073454</v>
+        <v>1694.922825772559</v>
       </c>
       <c r="O27" t="n">
-        <v>2102.114793023233</v>
+        <v>2104.065497722339</v>
       </c>
       <c r="P27" t="n">
-        <v>2411.154791674779</v>
+        <v>2413.105496373884</v>
       </c>
       <c r="Q27" t="n">
-        <v>2567.820650171993</v>
+        <v>2569.771354871099</v>
       </c>
       <c r="R27" t="n">
         <v>2569.771354871099</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>772.2192266380461</v>
+        <v>772.2192266380466</v>
       </c>
       <c r="C28" t="n">
-        <v>651.028401172122</v>
+        <v>651.0284011721226</v>
       </c>
       <c r="D28" t="n">
-        <v>548.6571192217692</v>
+        <v>548.6571192217698</v>
       </c>
       <c r="E28" t="n">
-        <v>448.489383101359</v>
+        <v>448.4893831013596</v>
       </c>
       <c r="F28" t="n">
-        <v>349.3447930654318</v>
+        <v>349.3447930654323</v>
       </c>
       <c r="G28" t="n">
         <v>229.3807756514051</v>
@@ -6382,31 +6382,31 @@
         <v>81.07387258773235</v>
       </c>
       <c r="J28" t="n">
-        <v>172.5386744177459</v>
+        <v>172.538674417746</v>
       </c>
       <c r="K28" t="n">
-        <v>422.5765729123012</v>
+        <v>422.5765729123016</v>
       </c>
       <c r="L28" t="n">
-        <v>784.9788806272709</v>
+        <v>784.9788806272713</v>
       </c>
       <c r="M28" t="n">
         <v>1174.926646074655</v>
       </c>
       <c r="N28" t="n">
-        <v>1562.149627512091</v>
+        <v>1562.149627512092</v>
       </c>
       <c r="O28" t="n">
-        <v>1907.368689885055</v>
+        <v>1907.368689885056</v>
       </c>
       <c r="P28" t="n">
         <v>2185.996379817862</v>
       </c>
       <c r="Q28" t="n">
-        <v>2309.865306516191</v>
+        <v>2309.865306516192</v>
       </c>
       <c r="R28" t="n">
-        <v>2267.486223207489</v>
+        <v>2267.48622320749</v>
       </c>
       <c r="S28" t="n">
         <v>2123.431752617693</v>
@@ -6415,19 +6415,19 @@
         <v>1949.382558486998</v>
       </c>
       <c r="U28" t="n">
-        <v>1708.024692442766</v>
+        <v>1708.024692442767</v>
       </c>
       <c r="V28" t="n">
-        <v>1501.085561698862</v>
+        <v>1501.085561698863</v>
       </c>
       <c r="W28" t="n">
         <v>1259.413749123885</v>
       </c>
       <c r="X28" t="n">
-        <v>1079.16955568785</v>
+        <v>1079.169555687851</v>
       </c>
       <c r="Y28" t="n">
-        <v>906.1223340063028</v>
+        <v>906.1223340063034</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>81.07387258773235</v>
       </c>
       <c r="J29" t="n">
-        <v>268.7405100675294</v>
+        <v>436.1461590878824</v>
       </c>
       <c r="K29" t="n">
-        <v>600.7426703385225</v>
+        <v>1089.052277804329</v>
       </c>
       <c r="L29" t="n">
-        <v>1049.522469651841</v>
+        <v>1537.832077117647</v>
       </c>
       <c r="M29" t="n">
-        <v>1580.545904441917</v>
+        <v>2068.855511907723</v>
       </c>
       <c r="N29" t="n">
-        <v>2124.775661953638</v>
+        <v>2613.085269419444</v>
       </c>
       <c r="O29" t="n">
-        <v>2762.278434220786</v>
+        <v>3113.650735651309</v>
       </c>
       <c r="P29" t="n">
-        <v>3473.579198889136</v>
+        <v>3506.370779229891</v>
       </c>
       <c r="Q29" t="n">
         <v>3930.514690545769</v>
@@ -6543,25 +6543,25 @@
         <v>174.0289892685331</v>
       </c>
       <c r="K30" t="n">
-        <v>411.0589140740965</v>
+        <v>413.0096187732022</v>
       </c>
       <c r="L30" t="n">
-        <v>776.0974404398714</v>
+        <v>778.0481451389771</v>
       </c>
       <c r="M30" t="n">
-        <v>1221.437051126042</v>
+        <v>1223.387755825148</v>
       </c>
       <c r="N30" t="n">
-        <v>1692.972121073454</v>
+        <v>1694.922825772559</v>
       </c>
       <c r="O30" t="n">
-        <v>2102.114793023233</v>
+        <v>2104.065497722339</v>
       </c>
       <c r="P30" t="n">
-        <v>2411.154791674779</v>
+        <v>2413.105496373884</v>
       </c>
       <c r="Q30" t="n">
-        <v>2567.820650171993</v>
+        <v>2569.771354871099</v>
       </c>
       <c r="R30" t="n">
         <v>2569.771354871099</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>772.2192266380466</v>
+        <v>772.2192266380457</v>
       </c>
       <c r="C31" t="n">
-        <v>651.0284011721226</v>
+        <v>651.0284011721217</v>
       </c>
       <c r="D31" t="n">
-        <v>548.6571192217698</v>
+        <v>548.6571192217689</v>
       </c>
       <c r="E31" t="n">
-        <v>448.4893831013595</v>
+        <v>448.4893831013586</v>
       </c>
       <c r="F31" t="n">
-        <v>349.3447930654318</v>
+        <v>349.3447930654312</v>
       </c>
       <c r="G31" t="n">
-        <v>229.3807756514051</v>
+        <v>229.3807756514045</v>
       </c>
       <c r="H31" t="n">
-        <v>130.8508153384047</v>
+        <v>130.8508153384041</v>
       </c>
       <c r="I31" t="n">
         <v>81.07387258773235</v>
@@ -6622,10 +6622,10 @@
         <v>172.538674417746</v>
       </c>
       <c r="K31" t="n">
-        <v>422.5765729123013</v>
+        <v>422.5765729123012</v>
       </c>
       <c r="L31" t="n">
-        <v>784.978880627271</v>
+        <v>784.9788806272709</v>
       </c>
       <c r="M31" t="n">
         <v>1174.926646074655</v>
@@ -6634,37 +6634,37 @@
         <v>1562.149627512091</v>
       </c>
       <c r="O31" t="n">
-        <v>1907.368689885056</v>
+        <v>1907.368689885055</v>
       </c>
       <c r="P31" t="n">
         <v>2185.996379817862</v>
       </c>
       <c r="Q31" t="n">
-        <v>2309.865306516192</v>
+        <v>2309.865306516191</v>
       </c>
       <c r="R31" t="n">
-        <v>2267.48622320749</v>
+        <v>2267.486223207489</v>
       </c>
       <c r="S31" t="n">
-        <v>2123.431752617693</v>
+        <v>2123.431752617692</v>
       </c>
       <c r="T31" t="n">
-        <v>1949.382558486998</v>
+        <v>1949.382558486997</v>
       </c>
       <c r="U31" t="n">
-        <v>1708.024692442767</v>
+        <v>1708.024692442766</v>
       </c>
       <c r="V31" t="n">
-        <v>1501.085561698863</v>
+        <v>1501.085561698862</v>
       </c>
       <c r="W31" t="n">
-        <v>1259.413749123885</v>
+        <v>1259.413749123884</v>
       </c>
       <c r="X31" t="n">
-        <v>1079.169555687851</v>
+        <v>1079.16955568785</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.1223340063034</v>
+        <v>906.1223340063025</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2031.424002727735</v>
+        <v>2031.424002727734</v>
       </c>
       <c r="C32" t="n">
         <v>1710.206843249306</v>
@@ -6686,7 +6686,7 @@
         <v>1061.643606968277</v>
       </c>
       <c r="F32" t="n">
-        <v>698.4030596406523</v>
+        <v>698.4030596406524</v>
       </c>
       <c r="G32" t="n">
         <v>331.0613910392008</v>
@@ -6704,22 +6704,22 @@
         <v>600.7426703385225</v>
       </c>
       <c r="L32" t="n">
-        <v>1049.522469651841</v>
+        <v>1084.718692664565</v>
       </c>
       <c r="M32" t="n">
-        <v>1580.545904441917</v>
+        <v>1615.742127454641</v>
       </c>
       <c r="N32" t="n">
-        <v>2124.775661953638</v>
+        <v>2159.971884966361</v>
       </c>
       <c r="O32" t="n">
-        <v>2762.278434220786</v>
+        <v>3037.529530648344</v>
       </c>
       <c r="P32" t="n">
-        <v>3473.579198889136</v>
+        <v>3748.830295316694</v>
       </c>
       <c r="Q32" t="n">
-        <v>3930.514690545769</v>
+        <v>3995.573946220022</v>
       </c>
       <c r="R32" t="n">
         <v>4053.693629386617</v>
@@ -6731,10 +6731,10 @@
         <v>3832.519973669373</v>
       </c>
       <c r="U32" t="n">
-        <v>3626.733688332519</v>
+        <v>3626.733688332518</v>
       </c>
       <c r="V32" t="n">
-        <v>3343.416158450931</v>
+        <v>3343.41615845093</v>
       </c>
       <c r="W32" t="n">
         <v>3038.392860642799</v>
@@ -6743,7 +6743,7 @@
         <v>2712.672459843702</v>
       </c>
       <c r="Y32" t="n">
-        <v>2370.278485329874</v>
+        <v>2370.278485329873</v>
       </c>
     </row>
     <row r="33">
@@ -6783,22 +6783,22 @@
         <v>411.0589140740965</v>
       </c>
       <c r="L33" t="n">
-        <v>776.0974404398714</v>
+        <v>778.0481451389771</v>
       </c>
       <c r="M33" t="n">
-        <v>1221.437051126042</v>
+        <v>1223.387755825148</v>
       </c>
       <c r="N33" t="n">
-        <v>1692.972121073454</v>
+        <v>1694.922825772559</v>
       </c>
       <c r="O33" t="n">
-        <v>2102.114793023233</v>
+        <v>2104.065497722339</v>
       </c>
       <c r="P33" t="n">
-        <v>2411.154791674779</v>
+        <v>2413.105496373884</v>
       </c>
       <c r="Q33" t="n">
-        <v>2567.820650171993</v>
+        <v>2569.771354871099</v>
       </c>
       <c r="R33" t="n">
         <v>2569.771354871099</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>772.2192266380462</v>
+        <v>772.2192266380459</v>
       </c>
       <c r="C34" t="n">
-        <v>651.0284011721221</v>
+        <v>651.0284011721219</v>
       </c>
       <c r="D34" t="n">
-        <v>548.6571192217693</v>
+        <v>548.657119221769</v>
       </c>
       <c r="E34" t="n">
-        <v>448.4893831013591</v>
+        <v>448.4893831013588</v>
       </c>
       <c r="F34" t="n">
-        <v>349.3447930654315</v>
+        <v>349.3447930654313</v>
       </c>
       <c r="G34" t="n">
-        <v>229.3807756514049</v>
+        <v>229.3807756514046</v>
       </c>
       <c r="H34" t="n">
-        <v>130.8508153384044</v>
+        <v>130.8508153384041</v>
       </c>
       <c r="I34" t="n">
         <v>81.07387258773235</v>
       </c>
       <c r="J34" t="n">
-        <v>172.5386744177458</v>
+        <v>172.5386744177457</v>
       </c>
       <c r="K34" t="n">
-        <v>422.5765729123012</v>
+        <v>422.5765729123011</v>
       </c>
       <c r="L34" t="n">
-        <v>784.9788806272709</v>
+        <v>784.9788806272708</v>
       </c>
       <c r="M34" t="n">
         <v>1174.926646074655</v>
       </c>
       <c r="N34" t="n">
-        <v>1562.149627512092</v>
+        <v>1562.149627512091</v>
       </c>
       <c r="O34" t="n">
-        <v>1907.368689885056</v>
+        <v>1907.368689885055</v>
       </c>
       <c r="P34" t="n">
         <v>2185.996379817862</v>
@@ -6883,25 +6883,25 @@
         <v>2267.486223207489</v>
       </c>
       <c r="S34" t="n">
-        <v>2123.431752617693</v>
+        <v>2123.431752617692</v>
       </c>
       <c r="T34" t="n">
         <v>1949.382558486998</v>
       </c>
       <c r="U34" t="n">
-        <v>1708.024692442767</v>
+        <v>1708.024692442766</v>
       </c>
       <c r="V34" t="n">
         <v>1501.085561698862</v>
       </c>
       <c r="W34" t="n">
-        <v>1259.413749123885</v>
+        <v>1259.413749123884</v>
       </c>
       <c r="X34" t="n">
         <v>1079.16955568785</v>
       </c>
       <c r="Y34" t="n">
-        <v>906.1223340063029</v>
+        <v>906.1223340063027</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2031.424002727735</v>
+        <v>2031.424002727734</v>
       </c>
       <c r="C35" t="n">
         <v>1710.206843249306</v>
@@ -6923,7 +6923,7 @@
         <v>1061.643606968277</v>
       </c>
       <c r="F35" t="n">
-        <v>698.4030596406523</v>
+        <v>698.4030596406524</v>
       </c>
       <c r="G35" t="n">
         <v>331.0613910392008</v>
@@ -6941,19 +6941,19 @@
         <v>600.7426703385225</v>
       </c>
       <c r="L35" t="n">
-        <v>1049.522469651841</v>
+        <v>1463.007072056787</v>
       </c>
       <c r="M35" t="n">
-        <v>1580.545904441917</v>
+        <v>2246.255772320274</v>
       </c>
       <c r="N35" t="n">
-        <v>2124.775661953638</v>
+        <v>2790.485529831994</v>
       </c>
       <c r="O35" t="n">
-        <v>2762.278434220786</v>
+        <v>3291.05099606386</v>
       </c>
       <c r="P35" t="n">
-        <v>3473.579198889136</v>
+        <v>3683.771039642441</v>
       </c>
       <c r="Q35" t="n">
         <v>3930.514690545769</v>
@@ -6968,10 +6968,10 @@
         <v>3832.519973669373</v>
       </c>
       <c r="U35" t="n">
-        <v>3626.733688332519</v>
+        <v>3626.733688332518</v>
       </c>
       <c r="V35" t="n">
-        <v>3343.416158450931</v>
+        <v>3343.41615845093</v>
       </c>
       <c r="W35" t="n">
         <v>3038.392860642799</v>
@@ -6980,7 +6980,7 @@
         <v>2712.672459843702</v>
       </c>
       <c r="Y35" t="n">
-        <v>2370.278485329874</v>
+        <v>2370.278485329873</v>
       </c>
     </row>
     <row r="36">
@@ -7032,10 +7032,10 @@
         <v>2102.114793023233</v>
       </c>
       <c r="P36" t="n">
-        <v>2411.154791674779</v>
+        <v>2413.105496373884</v>
       </c>
       <c r="Q36" t="n">
-        <v>2567.820650171993</v>
+        <v>2569.771354871099</v>
       </c>
       <c r="R36" t="n">
         <v>2569.771354871099</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>772.2192266380457</v>
+        <v>772.2192266380461</v>
       </c>
       <c r="C37" t="n">
-        <v>651.0284011721217</v>
+        <v>651.028401172122</v>
       </c>
       <c r="D37" t="n">
-        <v>548.6571192217689</v>
+        <v>548.6571192217691</v>
       </c>
       <c r="E37" t="n">
-        <v>448.4893831013586</v>
+        <v>448.4893831013588</v>
       </c>
       <c r="F37" t="n">
         <v>349.3447930654312</v>
       </c>
       <c r="G37" t="n">
-        <v>229.3807756514049</v>
+        <v>229.3807756514045</v>
       </c>
       <c r="H37" t="n">
-        <v>130.8508153384044</v>
+        <v>130.850815338404</v>
       </c>
       <c r="I37" t="n">
         <v>81.07387258773235</v>
@@ -7096,49 +7096,49 @@
         <v>172.538674417746</v>
       </c>
       <c r="K37" t="n">
-        <v>422.5765729123013</v>
+        <v>422.5765729123011</v>
       </c>
       <c r="L37" t="n">
-        <v>784.9788806272711</v>
+        <v>784.9788806272709</v>
       </c>
       <c r="M37" t="n">
         <v>1174.926646074655</v>
       </c>
       <c r="N37" t="n">
-        <v>1562.149627512091</v>
+        <v>1562.149627512092</v>
       </c>
       <c r="O37" t="n">
-        <v>1907.368689885055</v>
+        <v>1907.368689885056</v>
       </c>
       <c r="P37" t="n">
         <v>2185.996379817862</v>
       </c>
       <c r="Q37" t="n">
-        <v>2309.865306516191</v>
+        <v>2309.865306516192</v>
       </c>
       <c r="R37" t="n">
         <v>2267.486223207489</v>
       </c>
       <c r="S37" t="n">
-        <v>2123.431752617692</v>
+        <v>2123.431752617693</v>
       </c>
       <c r="T37" t="n">
-        <v>1949.382558486997</v>
+        <v>1949.382558486998</v>
       </c>
       <c r="U37" t="n">
-        <v>1708.024692442766</v>
+        <v>1708.024692442767</v>
       </c>
       <c r="V37" t="n">
         <v>1501.085561698862</v>
       </c>
       <c r="W37" t="n">
-        <v>1259.413749123884</v>
+        <v>1259.413749123885</v>
       </c>
       <c r="X37" t="n">
         <v>1079.16955568785</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.1223340063025</v>
+        <v>906.1223340063029</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2031.424002727736</v>
+        <v>2031.424002727735</v>
       </c>
       <c r="C38" t="n">
-        <v>1710.206843249307</v>
+        <v>1710.206843249306</v>
       </c>
       <c r="D38" t="n">
-        <v>1399.68650210454</v>
+        <v>1399.686502104538</v>
       </c>
       <c r="E38" t="n">
-        <v>1061.643606968278</v>
+        <v>1061.643606968277</v>
       </c>
       <c r="F38" t="n">
-        <v>698.4030596406537</v>
+        <v>698.4030596406523</v>
       </c>
       <c r="G38" t="n">
         <v>331.0613910392008</v>
       </c>
       <c r="H38" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="I38" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J38" t="n">
         <v>268.7405100675294</v>
@@ -7187,37 +7187,37 @@
         <v>2124.775661953638</v>
       </c>
       <c r="O38" t="n">
-        <v>2762.278434220787</v>
+        <v>3002.333307635621</v>
       </c>
       <c r="P38" t="n">
         <v>3473.579198889136</v>
       </c>
       <c r="Q38" t="n">
-        <v>3930.51469054577</v>
+        <v>3930.514690545769</v>
       </c>
       <c r="R38" t="n">
-        <v>4053.693629386618</v>
+        <v>4053.693629386617</v>
       </c>
       <c r="S38" t="n">
-        <v>3990.816169862326</v>
+        <v>3990.816169862325</v>
       </c>
       <c r="T38" t="n">
-        <v>3832.519973669374</v>
+        <v>3832.519973669373</v>
       </c>
       <c r="U38" t="n">
-        <v>3626.73368833252</v>
+        <v>3626.733688332518</v>
       </c>
       <c r="V38" t="n">
-        <v>3343.416158450932</v>
+        <v>3343.416158450931</v>
       </c>
       <c r="W38" t="n">
-        <v>3038.392860642801</v>
+        <v>3038.392860642799</v>
       </c>
       <c r="X38" t="n">
-        <v>2712.672459843704</v>
+        <v>2712.672459843702</v>
       </c>
       <c r="Y38" t="n">
-        <v>2370.278485329875</v>
+        <v>2370.278485329874</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>180.6988623670001</v>
       </c>
       <c r="H39" t="n">
-        <v>90.12164802936498</v>
+        <v>90.12164802936496</v>
       </c>
       <c r="I39" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J39" t="n">
         <v>174.0289892685331</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>772.2192266380464</v>
+        <v>772.2192266380465</v>
       </c>
       <c r="C40" t="n">
-        <v>651.0284011721224</v>
+        <v>651.0284011721225</v>
       </c>
       <c r="D40" t="n">
-        <v>548.6571192217696</v>
+        <v>548.6571192217697</v>
       </c>
       <c r="E40" t="n">
         <v>448.4893831013594</v>
@@ -7327,40 +7327,40 @@
         <v>130.8508153384047</v>
       </c>
       <c r="I40" t="n">
-        <v>81.07387258773237</v>
+        <v>81.07387258773235</v>
       </c>
       <c r="J40" t="n">
-        <v>172.538674417746</v>
+        <v>172.5386744177459</v>
       </c>
       <c r="K40" t="n">
-        <v>422.5765729123013</v>
+        <v>422.5765729123012</v>
       </c>
       <c r="L40" t="n">
-        <v>784.9788806272711</v>
+        <v>784.9788806272709</v>
       </c>
       <c r="M40" t="n">
         <v>1174.926646074655</v>
       </c>
       <c r="N40" t="n">
-        <v>1562.149627512092</v>
+        <v>1562.149627512091</v>
       </c>
       <c r="O40" t="n">
         <v>1907.368689885056</v>
       </c>
       <c r="P40" t="n">
-        <v>2185.996379817862</v>
+        <v>2185.996379817863</v>
       </c>
       <c r="Q40" t="n">
         <v>2309.865306516192</v>
       </c>
       <c r="R40" t="n">
-        <v>2267.486223207489</v>
+        <v>2267.48622320749</v>
       </c>
       <c r="S40" t="n">
         <v>2123.431752617693</v>
       </c>
       <c r="T40" t="n">
-        <v>1949.382558486998</v>
+        <v>1949.382558486999</v>
       </c>
       <c r="U40" t="n">
         <v>1708.024692442767</v>
@@ -7372,10 +7372,10 @@
         <v>1259.413749123885</v>
       </c>
       <c r="X40" t="n">
-        <v>1079.16955568785</v>
+        <v>1079.169555687851</v>
       </c>
       <c r="Y40" t="n">
-        <v>906.1223340063032</v>
+        <v>906.1223340063034</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2031.424002727735</v>
       </c>
       <c r="C41" t="n">
-        <v>1710.206843249307</v>
+        <v>1710.206843249306</v>
       </c>
       <c r="D41" t="n">
-        <v>1399.686502104539</v>
+        <v>1399.686502104538</v>
       </c>
       <c r="E41" t="n">
         <v>1061.643606968277</v>
       </c>
       <c r="F41" t="n">
-        <v>698.4030596406528</v>
+        <v>698.4030596406523</v>
       </c>
       <c r="G41" t="n">
-        <v>331.0613910392008</v>
+        <v>331.0613910392007</v>
       </c>
       <c r="H41" t="n">
         <v>81.07387258773234</v>
@@ -7415,43 +7415,43 @@
         <v>600.7426703385224</v>
       </c>
       <c r="L41" t="n">
-        <v>1049.522469651841</v>
+        <v>1463.007072056787</v>
       </c>
       <c r="M41" t="n">
-        <v>1580.545904441917</v>
+        <v>1994.030506846863</v>
       </c>
       <c r="N41" t="n">
-        <v>2124.775661953638</v>
+        <v>2855.544785506247</v>
       </c>
       <c r="O41" t="n">
-        <v>2762.278434220785</v>
+        <v>3356.110251738112</v>
       </c>
       <c r="P41" t="n">
-        <v>3473.579198889135</v>
+        <v>3748.830295316694</v>
       </c>
       <c r="Q41" t="n">
-        <v>3930.514690545768</v>
+        <v>3995.573946220021</v>
       </c>
       <c r="R41" t="n">
         <v>4053.693629386617</v>
       </c>
       <c r="S41" t="n">
-        <v>3990.816169862324</v>
+        <v>3990.816169862325</v>
       </c>
       <c r="T41" t="n">
-        <v>3832.519973669374</v>
+        <v>3832.519973669373</v>
       </c>
       <c r="U41" t="n">
-        <v>3626.733688332519</v>
+        <v>3626.733688332518</v>
       </c>
       <c r="V41" t="n">
         <v>3343.416158450931</v>
       </c>
       <c r="W41" t="n">
-        <v>3038.3928606428</v>
+        <v>3038.392860642799</v>
       </c>
       <c r="X41" t="n">
-        <v>2712.672459843703</v>
+        <v>2712.672459843702</v>
       </c>
       <c r="Y41" t="n">
         <v>2370.278485329874</v>
@@ -7500,16 +7500,16 @@
         <v>1221.437051126042</v>
       </c>
       <c r="N42" t="n">
-        <v>1692.972121073454</v>
+        <v>1694.922825772559</v>
       </c>
       <c r="O42" t="n">
-        <v>2102.114793023233</v>
+        <v>2104.065497722339</v>
       </c>
       <c r="P42" t="n">
-        <v>2411.154791674779</v>
+        <v>2413.105496373884</v>
       </c>
       <c r="Q42" t="n">
-        <v>2567.820650171993</v>
+        <v>2569.771354871099</v>
       </c>
       <c r="R42" t="n">
         <v>2569.771354871099</v>
@@ -7546,34 +7546,34 @@
         <v>772.2192266380464</v>
       </c>
       <c r="C43" t="n">
-        <v>651.0284011721224</v>
+        <v>651.0284011721225</v>
       </c>
       <c r="D43" t="n">
-        <v>548.6571192217696</v>
+        <v>548.6571192217697</v>
       </c>
       <c r="E43" t="n">
-        <v>448.4893831013594</v>
+        <v>448.4893831013595</v>
       </c>
       <c r="F43" t="n">
-        <v>349.3447930654319</v>
+        <v>349.344793065432</v>
       </c>
       <c r="G43" t="n">
-        <v>229.3807756514052</v>
+        <v>229.3807756514053</v>
       </c>
       <c r="H43" t="n">
-        <v>130.8508153384047</v>
+        <v>130.8508153384049</v>
       </c>
       <c r="I43" t="n">
         <v>81.07387258773234</v>
       </c>
       <c r="J43" t="n">
-        <v>172.5386744177459</v>
+        <v>172.538674417746</v>
       </c>
       <c r="K43" t="n">
-        <v>422.5765729123012</v>
+        <v>422.5765729123013</v>
       </c>
       <c r="L43" t="n">
-        <v>784.9788806272709</v>
+        <v>784.9788806272711</v>
       </c>
       <c r="M43" t="n">
         <v>1174.926646074655</v>
@@ -7597,10 +7597,10 @@
         <v>2123.431752617693</v>
       </c>
       <c r="T43" t="n">
-        <v>1949.382558486997</v>
+        <v>1949.382558486998</v>
       </c>
       <c r="U43" t="n">
-        <v>1708.024692442767</v>
+        <v>1708.024692442766</v>
       </c>
       <c r="V43" t="n">
         <v>1501.085561698862</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2031.424002727735</v>
+        <v>2031.424002727734</v>
       </c>
       <c r="C44" t="n">
-        <v>1710.206843249306</v>
+        <v>1710.206843249305</v>
       </c>
       <c r="D44" t="n">
         <v>1399.686502104538</v>
@@ -7634,64 +7634,64 @@
         <v>1061.643606968277</v>
       </c>
       <c r="F44" t="n">
-        <v>698.4030596406523</v>
+        <v>698.4030596406519</v>
       </c>
       <c r="G44" t="n">
-        <v>331.0613910392008</v>
+        <v>331.0613910392007</v>
       </c>
       <c r="H44" t="n">
-        <v>81.07387258773238</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="I44" t="n">
-        <v>81.07387258773238</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J44" t="n">
-        <v>268.7405100675294</v>
+        <v>436.1461590878824</v>
       </c>
       <c r="K44" t="n">
-        <v>600.7426703385225</v>
+        <v>821.434140058974</v>
       </c>
       <c r="L44" t="n">
-        <v>1049.522469651841</v>
+        <v>1270.213939372293</v>
       </c>
       <c r="M44" t="n">
-        <v>1580.545904441917</v>
+        <v>2246.255772320273</v>
       </c>
       <c r="N44" t="n">
-        <v>2557.749117121502</v>
+        <v>2790.485529831994</v>
       </c>
       <c r="O44" t="n">
-        <v>3058.314583353367</v>
+        <v>3291.050996063859</v>
       </c>
       <c r="P44" t="n">
-        <v>3473.579198889137</v>
+        <v>3683.77103964244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3930.51469054577</v>
+        <v>3930.514690545768</v>
       </c>
       <c r="R44" t="n">
-        <v>4053.693629386619</v>
+        <v>4053.693629386617</v>
       </c>
       <c r="S44" t="n">
-        <v>3990.816169862326</v>
+        <v>3990.816169862324</v>
       </c>
       <c r="T44" t="n">
-        <v>3832.519973669375</v>
+        <v>3832.519973669373</v>
       </c>
       <c r="U44" t="n">
-        <v>3626.733688332519</v>
+        <v>3626.733688332517</v>
       </c>
       <c r="V44" t="n">
-        <v>3343.416158450931</v>
+        <v>3343.41615845093</v>
       </c>
       <c r="W44" t="n">
-        <v>3038.3928606428</v>
+        <v>3038.392860642798</v>
       </c>
       <c r="X44" t="n">
-        <v>2712.672459843703</v>
+        <v>2712.672459843701</v>
       </c>
       <c r="Y44" t="n">
-        <v>2370.278485329874</v>
+        <v>2370.278485329873</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>180.6988623670001</v>
       </c>
       <c r="H45" t="n">
-        <v>90.12164802936499</v>
+        <v>90.12164802936495</v>
       </c>
       <c r="I45" t="n">
-        <v>81.07387258773238</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J45" t="n">
         <v>174.0289892685331</v>
       </c>
       <c r="K45" t="n">
-        <v>411.0589140740965</v>
+        <v>413.0096187732022</v>
       </c>
       <c r="L45" t="n">
-        <v>776.0974404398714</v>
+        <v>778.0481451389771</v>
       </c>
       <c r="M45" t="n">
-        <v>1221.437051126042</v>
+        <v>1223.387755825148</v>
       </c>
       <c r="N45" t="n">
-        <v>1692.972121073454</v>
+        <v>1694.922825772559</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.114793023233</v>
+        <v>2104.065497722339</v>
       </c>
       <c r="P45" t="n">
-        <v>2411.154791674779</v>
+        <v>2413.105496373884</v>
       </c>
       <c r="Q45" t="n">
-        <v>2567.820650171993</v>
+        <v>2569.771354871099</v>
       </c>
       <c r="R45" t="n">
         <v>2569.771354871099</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>772.2192266380465</v>
+        <v>772.2192266380462</v>
       </c>
       <c r="C46" t="n">
-        <v>651.0284011721225</v>
+        <v>651.0284011721221</v>
       </c>
       <c r="D46" t="n">
-        <v>548.6571192217697</v>
+        <v>548.6571192217693</v>
       </c>
       <c r="E46" t="n">
-        <v>448.4893831013594</v>
+        <v>448.4893831013591</v>
       </c>
       <c r="F46" t="n">
-        <v>349.3447930654319</v>
+        <v>349.3447930654317</v>
       </c>
       <c r="G46" t="n">
-        <v>229.3807756514052</v>
+        <v>229.3807756514051</v>
       </c>
       <c r="H46" t="n">
-        <v>130.8508153384047</v>
+        <v>130.8508153384046</v>
       </c>
       <c r="I46" t="n">
-        <v>81.07387258773238</v>
+        <v>81.07387258773234</v>
       </c>
       <c r="J46" t="n">
-        <v>172.5386744177466</v>
+        <v>172.5386744177459</v>
       </c>
       <c r="K46" t="n">
-        <v>422.5765729123019</v>
+        <v>422.5765729123012</v>
       </c>
       <c r="L46" t="n">
-        <v>784.9788806272716</v>
+        <v>784.978880627271</v>
       </c>
       <c r="M46" t="n">
-        <v>1174.926646074656</v>
+        <v>1174.926646074655</v>
       </c>
       <c r="N46" t="n">
         <v>1562.149627512092</v>
@@ -7822,13 +7822,13 @@
         <v>1907.368689885056</v>
       </c>
       <c r="P46" t="n">
-        <v>2185.996379817863</v>
+        <v>2185.996379817862</v>
       </c>
       <c r="Q46" t="n">
         <v>2309.865306516192</v>
       </c>
       <c r="R46" t="n">
-        <v>2267.48622320749</v>
+        <v>2267.486223207489</v>
       </c>
       <c r="S46" t="n">
         <v>2123.431752617693</v>
@@ -7849,7 +7849,7 @@
         <v>1079.169555687851</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.1223340063034</v>
+        <v>906.1223340063029</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M5" t="n">
-        <v>245.0306783175538</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N5" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>245.4009489368218</v>
+        <v>244.7826565119678</v>
       </c>
       <c r="P5" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
-        <v>245.0306783175538</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
-        <v>244.715801111726</v>
+        <v>244.097508686872</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8544,10 +8544,10 @@
         <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>157.2806895347256</v>
+        <v>157.8989819595795</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>148.6588525046114</v>
       </c>
       <c r="Q9" t="n">
         <v>155.2845116011566</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>83.52581168506561</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>83.52581168506487</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8936,13 +8936,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>138.3205111467505</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>22.77229490624916</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9167,19 +9167,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>42.45800476778288</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>138.3205111467506</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.970408786975327</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2.592686179678926</v>
+        <v>0.6222773927030119</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>350.6355018066556</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>138.3205111467511</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.970408786975497</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2.592686179678926</v>
+        <v>0.6222773927030119</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>76.32210569838344</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>79.31903805548905</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>138.3205111467506</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>300.8037054391365</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.970408786975327</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>2.592686179678926</v>
+        <v>0.6222773927030119</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>138.3205111467506</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>179.1921822348998</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.970408786975497</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>2.592686179678926</v>
+        <v>0.6222773927030119</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>35.5517404168927</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>138.3205111467506</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.970408786975554</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>2.592686179678926</v>
+        <v>0.6222773927030119</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,22 +10589,22 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>254.7729954276875</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>138.3205111467506</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1.970408786975554</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>2.592686179678926</v>
+        <v>0.6222773927030119</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,10 +10835,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>138.3205111467515</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>79.31903805548814</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11063,25 +11063,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>320.4894153006697</v>
       </c>
       <c r="O41" t="n">
-        <v>138.3205111467497</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.970408786975327</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>2.592686179678926</v>
+        <v>0.6222773927030119</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>53.82406131323074</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>22.77229490625064</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.970408786975497</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>2.592686179678926</v>
+        <v>0.6222773927030119</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>109.124911296959</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>60.74613163828042</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23276,7 +23276,7 @@
         <v>296.2011990986589</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.5753080674578</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0956005163754</v>
       </c>
       <c r="H13" t="n">
-        <v>90.59783461790143</v>
+        <v>145.3755315296443</v>
       </c>
       <c r="I13" t="n">
         <v>98.45126393078939</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>164.9581770226037</v>
       </c>
     </row>
     <row r="14">
@@ -23507,10 +23507,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>2.252309632667505</v>
+        <v>297.0078567869842</v>
       </c>
       <c r="H14" t="n">
-        <v>294.7555471543168</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>111.7954152764932</v>
+        <v>39.64472457096787</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1073943.808392277</v>
+        <v>1073943.808392278</v>
       </c>
       <c r="F3" t="n">
-        <v>93498.78389439662</v>
+        <v>93498.78389439636</v>
       </c>
       <c r="G3" t="n">
         <v>37814.32310989046</v>
@@ -26393,19 +26393,19 @@
         <v>3938.434948795277</v>
       </c>
       <c r="L3" t="n">
-        <v>37814.32310989045</v>
+        <v>37814.32310989044</v>
       </c>
       <c r="M3" t="n">
-        <v>191555.7021480792</v>
+        <v>191555.7021480793</v>
       </c>
       <c r="N3" t="n">
-        <v>56198.60183102549</v>
+        <v>56198.60183102538</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.343630628980463e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>402526.5473127806</v>
       </c>
       <c r="E4" t="n">
-        <v>8928.172928855103</v>
+        <v>8928.172928855096</v>
       </c>
       <c r="F4" t="n">
         <v>23722.23361871939</v>
@@ -26433,13 +26433,13 @@
         <v>71255.32864280663</v>
       </c>
       <c r="H4" t="n">
-        <v>71255.32864280665</v>
+        <v>71255.32864280663</v>
       </c>
       <c r="I4" t="n">
-        <v>71255.32864280665</v>
+        <v>71255.32864280659</v>
       </c>
       <c r="J4" t="n">
-        <v>71255.32864280662</v>
+        <v>71255.32864280663</v>
       </c>
       <c r="K4" t="n">
         <v>71255.32864280663</v>
@@ -26448,16 +26448,16 @@
         <v>71255.32864280662</v>
       </c>
       <c r="M4" t="n">
-        <v>71255.32864280663</v>
+        <v>71255.32864280659</v>
       </c>
       <c r="N4" t="n">
+        <v>71255.32864280662</v>
+      </c>
+      <c r="O4" t="n">
         <v>71255.32864280665</v>
       </c>
-      <c r="O4" t="n">
-        <v>71255.32864280659</v>
-      </c>
       <c r="P4" t="n">
-        <v>71255.32864280665</v>
+        <v>71255.32864280662</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>70578.96505477304</v>
+        <v>70578.96505477307</v>
       </c>
       <c r="F5" t="n">
         <v>85295.02414724098</v>
@@ -26488,7 +26488,7 @@
         <v>89268.78955914771</v>
       </c>
       <c r="I5" t="n">
-        <v>89268.78955914773</v>
+        <v>89268.78955914771</v>
       </c>
       <c r="J5" t="n">
         <v>89268.78955914771</v>
@@ -26503,13 +26503,13 @@
         <v>89268.78955914771</v>
       </c>
       <c r="N5" t="n">
-        <v>89268.78955914773</v>
+        <v>89268.78955914771</v>
       </c>
       <c r="O5" t="n">
         <v>89268.7895591477</v>
       </c>
       <c r="P5" t="n">
-        <v>89268.78955914773</v>
+        <v>89268.7895591477</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-437649.2580598143</v>
+        <v>-437653.6716376824</v>
       </c>
       <c r="C6" t="n">
         <v>-442028.4196603935</v>
       </c>
       <c r="D6" t="n">
-        <v>-437084.5537537009</v>
+        <v>-437084.5537537008</v>
       </c>
       <c r="E6" t="n">
-        <v>-1153450.946375905</v>
+        <v>-1153842.094116622</v>
       </c>
       <c r="F6" t="n">
-        <v>-202516.041660357</v>
+        <v>-202723.7288355398</v>
       </c>
       <c r="G6" t="n">
         <v>-198338.4413118448</v>
@@ -26540,7 +26540,7 @@
         <v>-160524.1182019543</v>
       </c>
       <c r="I6" t="n">
-        <v>-160524.1182019544</v>
+        <v>-160524.1182019543</v>
       </c>
       <c r="J6" t="n">
         <v>-160524.1182019543</v>
@@ -26555,13 +26555,13 @@
         <v>-352079.8203500336</v>
       </c>
       <c r="N6" t="n">
-        <v>-216722.7200329799</v>
+        <v>-216722.7200329797</v>
       </c>
       <c r="O6" t="n">
         <v>-160524.1182019543</v>
       </c>
       <c r="P6" t="n">
-        <v>-160524.1182019545</v>
+        <v>-160524.1182019543</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>47.26790388736308</v>
       </c>
       <c r="H2" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="I2" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="J2" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="K2" t="n">
         <v>47.26790388736308</v>
       </c>
       <c r="L2" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="M2" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="N2" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="O2" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="P2" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
     </row>
     <row r="3">
@@ -26796,7 +26796,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>783.9729921983634</v>
+        <v>783.9729921983637</v>
       </c>
       <c r="F4" t="n">
         <v>1013.423407346654</v>
@@ -26808,7 +26808,7 @@
         <v>1013.423407346654</v>
       </c>
       <c r="I4" t="n">
-        <v>1013.423407346655</v>
+        <v>1013.423407346654</v>
       </c>
       <c r="J4" t="n">
         <v>1013.423407346654</v>
@@ -26823,13 +26823,13 @@
         <v>1013.423407346654</v>
       </c>
       <c r="N4" t="n">
-        <v>1013.423407346655</v>
+        <v>1013.423407346654</v>
       </c>
       <c r="O4" t="n">
         <v>1013.423407346654</v>
       </c>
       <c r="P4" t="n">
-        <v>1013.423407346655</v>
+        <v>1013.423407346654</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>1051.073721518924</v>
       </c>
       <c r="F3" t="n">
-        <v>35.11347942439693</v>
+        <v>35.1134794243967</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>768.6702546832283</v>
+        <v>768.6702546832287</v>
       </c>
       <c r="F4" t="n">
-        <v>229.4504151482909</v>
+        <v>229.4504151482906</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,16 +27042,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>768.6702546832283</v>
+        <v>768.6702546832287</v>
       </c>
       <c r="N4" t="n">
-        <v>229.4504151482911</v>
+        <v>229.4504151482906</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>768.6702546832283</v>
+        <v>768.6702546832287</v>
       </c>
       <c r="N4" t="n">
-        <v>229.4504151482909</v>
+        <v>229.4504151482906</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>195.1731520552709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27667,22 +27667,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>216.4932441025119</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>236.0429153927014</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>333.938231202278</v>
       </c>
       <c r="X5" t="n">
-        <v>354.428363163334</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>379.6353331944341</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27743,19 +27743,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>156.3804335887028</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U6" t="n">
-        <v>212.4627308776439</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V6" t="n">
-        <v>217.4978496342902</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>238.2163319575887</v>
       </c>
       <c r="X6" t="n">
         <v>190.4702476883424</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>169.0747697137129</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27819,7 +27819,7 @@
         <v>70.85930573655934</v>
       </c>
       <c r="R7" t="n">
-        <v>161.9906538620344</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27828,16 +27828,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>275.5618188882664</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>236.834905808693</v>
       </c>
       <c r="W7" t="n">
-        <v>271.220260821456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>210.4069178739021</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>367.4311041483455</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>348.0804361590635</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>366.6276325571267</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>357.8164569162593</v>
+        <v>354.428363163334</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>153.0545324465364</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27980,19 +27980,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>158.2045199005069</v>
+        <v>156.3804335887028</v>
       </c>
       <c r="T9" t="n">
         <v>184.8619911796866</v>
       </c>
       <c r="U9" t="n">
-        <v>210.6386445658398</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W9" t="n">
-        <v>236.3922456457846</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>164.5292426668022</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28050,22 +28050,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
-        <v>163.8147401738385</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>208.7138605218372</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>217.1883789600571</v>
       </c>
       <c r="U10" t="n">
-        <v>271.0162918413558</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>210.4069178739021</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="C20" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="D20" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="E20" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="F20" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="G20" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="H20" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="I20" t="n">
         <v>42.13324810561235</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="T20" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="U20" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="V20" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="W20" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="X20" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="C22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="D22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="E22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="F22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="G22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="H22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="I22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="J22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="K22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736316</v>
       </c>
       <c r="L22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="M22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="N22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="O22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="P22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="R22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="S22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="T22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="U22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="V22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="W22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="X22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="C23" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="D23" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736214</v>
       </c>
       <c r="E23" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="F23" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="G23" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="H23" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="I23" t="n">
         <v>42.13324810561235</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="T23" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="U23" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="V23" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="W23" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="X23" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="C25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="D25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="E25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="F25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="G25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="H25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="I25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="J25" t="n">
-        <v>47.26790388736316</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="K25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="L25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="M25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="N25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="O25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="P25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="R25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="S25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="T25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="U25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="V25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="W25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="X25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="C26" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="D26" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="E26" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="F26" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="G26" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="H26" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="I26" t="n">
         <v>42.13324810561235</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="T26" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="U26" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="V26" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="W26" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="X26" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="C28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="D28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="E28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="F28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="G28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="H28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="I28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="J28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="K28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="L28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="M28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="N28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="O28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="P28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="R28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="S28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="T28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="U28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="V28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="W28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="X28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.26790388736307</v>
+        <v>47.26790388736308</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="C32" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="D32" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="E32" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="F32" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="G32" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="H32" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="I32" t="n">
         <v>42.13324810561235</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="T32" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="U32" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="V32" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="W32" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="X32" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="C34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="D34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="E34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="F34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="G34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="H34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="I34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="J34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="K34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="L34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="M34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="N34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="O34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="P34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="R34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="S34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="T34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="U34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="V34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="W34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="X34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="C35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="D35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="E35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="F35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="G35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="H35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="I35" t="n">
         <v>42.13324810561235</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="T35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="U35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="V35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="W35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="X35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="C37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="D37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="E37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="F37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="G37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="H37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="I37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="J37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="K37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="L37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="M37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="N37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="O37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="P37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="R37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="S37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="T37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="U37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="V37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="W37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="X37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.26790388736308</v>
+        <v>47.26790388736305</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="C38" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="D38" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="E38" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="F38" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="G38" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="H38" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="I38" t="n">
         <v>42.13324810561235</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="T38" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="U38" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="V38" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="W38" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="X38" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="C40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="D40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="E40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="F40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="G40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="H40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="I40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="J40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="K40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="L40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="M40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="N40" t="n">
-        <v>47.26790388736316</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="O40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="P40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736359</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="R40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="S40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="T40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="U40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="V40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="W40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="X40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.26790388736306</v>
+        <v>47.26790388736305</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="C41" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="D41" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="E41" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="F41" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="G41" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="H41" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="I41" t="n">
         <v>42.13324810561235</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="T41" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="U41" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="V41" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="W41" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="X41" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="C43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="D43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="E43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="F43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="G43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="H43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="I43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="J43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="K43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="L43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="M43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="N43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="O43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="P43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="R43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="S43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="T43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="U43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="V43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="W43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="X43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="C44" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="D44" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="E44" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="F44" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="G44" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="H44" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="I44" t="n">
         <v>42.13324810561235</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="T44" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="U44" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="V44" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="W44" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="X44" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="C46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="D46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="E46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="F46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="G46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="H46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="I46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="J46" t="n">
-        <v>47.26790388736369</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="K46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="L46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="M46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="N46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="O46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="P46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="R46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="S46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="T46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="U46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="V46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="W46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="X46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.26790388736305</v>
+        <v>47.2679038873631</v>
       </c>
     </row>
   </sheetData>
@@ -31753,46 +31753,46 @@
         <v>4.225421996055974</v>
       </c>
       <c r="H11" t="n">
-        <v>43.27360301710825</v>
+        <v>43.27360301710826</v>
       </c>
       <c r="I11" t="n">
         <v>162.9005815029481</v>
       </c>
       <c r="J11" t="n">
-        <v>358.627410137756</v>
+        <v>358.6274101377561</v>
       </c>
       <c r="K11" t="n">
-        <v>537.4895232308055</v>
+        <v>537.4895232308056</v>
       </c>
       <c r="L11" t="n">
-        <v>666.8032816426037</v>
+        <v>666.8032816426038</v>
       </c>
       <c r="M11" t="n">
-        <v>741.947130064964</v>
+        <v>741.9471300649642</v>
       </c>
       <c r="N11" t="n">
-        <v>753.9526103112581</v>
+        <v>753.9526103112582</v>
       </c>
       <c r="O11" t="n">
-        <v>711.9360703379765</v>
+        <v>711.9360703379766</v>
       </c>
       <c r="P11" t="n">
-        <v>607.6209648103445</v>
+        <v>607.6209648103446</v>
       </c>
       <c r="Q11" t="n">
-        <v>456.2980395765898</v>
+        <v>456.2980395765899</v>
       </c>
       <c r="R11" t="n">
         <v>265.4251644597513</v>
       </c>
       <c r="S11" t="n">
-        <v>96.2868037351256</v>
+        <v>96.28680373512562</v>
       </c>
       <c r="T11" t="n">
-        <v>18.49678478773503</v>
+        <v>18.49678478773504</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3380337596844778</v>
+        <v>0.3380337596844779</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.260800080248252</v>
+        <v>2.260800080248253</v>
       </c>
       <c r="H12" t="n">
         <v>21.83456919608181</v>
       </c>
       <c r="I12" t="n">
-        <v>77.83895013135431</v>
+        <v>77.83895013135432</v>
       </c>
       <c r="J12" t="n">
         <v>213.5960286343316</v>
       </c>
       <c r="K12" t="n">
-        <v>365.0696340109645</v>
+        <v>365.0696340109646</v>
       </c>
       <c r="L12" t="n">
-        <v>490.8811753188146</v>
+        <v>490.8811753188147</v>
       </c>
       <c r="M12" t="n">
-        <v>572.8351782278137</v>
+        <v>572.8351782278138</v>
       </c>
       <c r="N12" t="n">
-        <v>587.9964208712329</v>
+        <v>587.9964208712331</v>
       </c>
       <c r="O12" t="n">
-        <v>537.901850672048</v>
+        <v>537.9018506720481</v>
       </c>
       <c r="P12" t="n">
-        <v>431.7136574291597</v>
+        <v>431.7136574291598</v>
       </c>
       <c r="Q12" t="n">
         <v>288.5891470857243</v>
@@ -31865,10 +31865,10 @@
         <v>140.3679207719047</v>
       </c>
       <c r="S12" t="n">
-        <v>41.99336991162869</v>
+        <v>41.9933699116287</v>
       </c>
       <c r="T12" t="n">
-        <v>9.112610849772556</v>
+        <v>9.112610849772558</v>
       </c>
       <c r="U12" t="n">
         <v>0.1487368473847535</v>
@@ -31914,7 +31914,7 @@
         <v>16.85164097779522</v>
       </c>
       <c r="I13" t="n">
-        <v>56.99921099646889</v>
+        <v>56.9992109964689</v>
       </c>
       <c r="J13" t="n">
         <v>134.0032841352897</v>
@@ -31929,28 +31929,28 @@
         <v>297.1092488549313</v>
       </c>
       <c r="N13" t="n">
-        <v>290.0446549889846</v>
+        <v>290.0446549889847</v>
       </c>
       <c r="O13" t="n">
-        <v>267.9031839701022</v>
+        <v>267.9031839701023</v>
       </c>
       <c r="P13" t="n">
-        <v>229.2374555916026</v>
+        <v>229.2374555916027</v>
       </c>
       <c r="Q13" t="n">
-        <v>158.7121319493575</v>
+        <v>158.7121319493576</v>
       </c>
       <c r="R13" t="n">
-        <v>85.2231250267639</v>
+        <v>85.22312502676391</v>
       </c>
       <c r="S13" t="n">
-        <v>33.03128400248814</v>
+        <v>33.03128400248815</v>
       </c>
       <c r="T13" t="n">
-        <v>8.098436870719578</v>
+        <v>8.09843687071958</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1033843004772713</v>
+        <v>0.1033843004772714</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="N5" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="O5" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="P5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N8" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="N8" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="O8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35264,10 +35264,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="P9" t="n">
         <v>14.68444509028111</v>
-      </c>
-      <c r="P9" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="Q9" t="n">
         <v>15.30273751513505</v>
@@ -35410,28 +35410,28 @@
         <v>177.5815056110698</v>
       </c>
       <c r="K11" t="n">
-        <v>317.399672185825</v>
+        <v>317.3996721858251</v>
       </c>
       <c r="L11" t="n">
-        <v>431.0368666726164</v>
+        <v>431.0368666726166</v>
       </c>
       <c r="M11" t="n">
-        <v>511.6008968376913</v>
+        <v>511.6008968376915</v>
       </c>
       <c r="N11" t="n">
         <v>524.5395467146673</v>
       </c>
       <c r="O11" t="n">
-        <v>481.8378589162897</v>
+        <v>481.8378589162899</v>
       </c>
       <c r="P11" t="n">
-        <v>376.387969055075</v>
+        <v>376.3879690550751</v>
       </c>
       <c r="Q11" t="n">
-        <v>233.9923497021403</v>
+        <v>233.9923497021404</v>
       </c>
       <c r="R11" t="n">
-        <v>49.83962664561915</v>
+        <v>49.83962664561921</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.75840196766492</v>
+        <v>86.75840196766495</v>
       </c>
       <c r="K12" t="n">
-        <v>227.2281950366055</v>
+        <v>227.2281950366056</v>
       </c>
       <c r="L12" t="n">
-        <v>352.3267955389404</v>
+        <v>352.3267955389405</v>
       </c>
       <c r="M12" t="n">
-        <v>430.7011443057954</v>
+        <v>430.7011443057955</v>
       </c>
       <c r="N12" t="n">
-        <v>456.6547087878996</v>
+        <v>456.6547087878998</v>
       </c>
       <c r="O12" t="n">
-        <v>395.3056062276036</v>
+        <v>395.3056062276037</v>
       </c>
       <c r="P12" t="n">
-        <v>381.2650616998951</v>
+        <v>297.7392500148296</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.6073729997028</v>
+        <v>232.1331846847677</v>
       </c>
       <c r="R12" t="n">
-        <v>40.21008661926156</v>
+        <v>40.21008661926159</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.64410401861693</v>
+        <v>40.64410401861696</v>
       </c>
       <c r="K13" t="n">
-        <v>197.9390681907048</v>
+        <v>197.9390681907049</v>
       </c>
       <c r="L13" t="n">
         <v>309.3811669278651</v>
       </c>
       <c r="M13" t="n">
-        <v>336.6931258167718</v>
+        <v>336.6931258167719</v>
       </c>
       <c r="N13" t="n">
         <v>334.1768273682133</v>
       </c>
       <c r="O13" t="n">
-        <v>292.4883118841419</v>
+        <v>292.488311884142</v>
       </c>
       <c r="P13" t="n">
-        <v>226.5160148564961</v>
+        <v>226.5160148564962</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.55008869766316</v>
+        <v>72.55008869766321</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,13 +35656,13 @@
         <v>536.3873078687632</v>
       </c>
       <c r="N14" t="n">
-        <v>688.0475389363673</v>
+        <v>987.0739522016009</v>
       </c>
       <c r="O14" t="n">
-        <v>505.6216830624902</v>
+        <v>528.3939779687394</v>
       </c>
       <c r="P14" t="n">
-        <v>718.4856208771207</v>
+        <v>396.686912705638</v>
       </c>
       <c r="Q14" t="n">
         <v>461.551001673367</v>
@@ -35887,19 +35887,19 @@
         <v>335.3557174454476</v>
       </c>
       <c r="L17" t="n">
-        <v>453.312928599312</v>
+        <v>870.9741431497624</v>
       </c>
       <c r="M17" t="n">
-        <v>536.3873078687632</v>
+        <v>578.8453126365461</v>
       </c>
       <c r="N17" t="n">
         <v>549.7270277896168</v>
       </c>
       <c r="O17" t="n">
-        <v>643.9421942092408</v>
+        <v>505.6216830624902</v>
       </c>
       <c r="P17" t="n">
-        <v>718.4856208771207</v>
+        <v>396.686912705638</v>
       </c>
       <c r="Q17" t="n">
         <v>461.551001673367</v>
@@ -35972,7 +35972,7 @@
         <v>449.8379905920917</v>
       </c>
       <c r="N18" t="n">
-        <v>476.298050451931</v>
+        <v>478.2684592389063</v>
       </c>
       <c r="O18" t="n">
         <v>413.2754262118984</v>
@@ -35984,7 +35984,7 @@
         <v>158.2483419163787</v>
       </c>
       <c r="R18" t="n">
-        <v>1.970408786975913</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>335.3557174454476</v>
       </c>
       <c r="L20" t="n">
-        <v>453.312928599312</v>
+        <v>803.9484304059675</v>
       </c>
       <c r="M20" t="n">
         <v>536.3873078687632</v>
@@ -36133,13 +36133,13 @@
         <v>549.7270277896168</v>
       </c>
       <c r="O20" t="n">
-        <v>643.9421942092413</v>
+        <v>505.6216830624902</v>
       </c>
       <c r="P20" t="n">
         <v>718.4856208771207</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.551001673367</v>
+        <v>249.2360110134623</v>
       </c>
       <c r="R20" t="n">
         <v>124.4231705463113</v>
@@ -36212,7 +36212,7 @@
         <v>476.298050451931</v>
       </c>
       <c r="O21" t="n">
-        <v>413.2754262118984</v>
+        <v>415.2458349988739</v>
       </c>
       <c r="P21" t="n">
         <v>312.1616147995407</v>
@@ -36221,7 +36221,7 @@
         <v>158.2483419163787</v>
       </c>
       <c r="R21" t="n">
-        <v>1.970408786975913</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,22 +36364,22 @@
         <v>453.312928599312</v>
       </c>
       <c r="M23" t="n">
-        <v>536.3873078687632</v>
+        <v>985.9008413615957</v>
       </c>
       <c r="N23" t="n">
-        <v>549.7270277896168</v>
+        <v>626.0491334880003</v>
       </c>
       <c r="O23" t="n">
-        <v>886.4218643252356</v>
+        <v>505.6216830624902</v>
       </c>
       <c r="P23" t="n">
-        <v>476.0059507611271</v>
+        <v>396.686912705638</v>
       </c>
       <c r="Q23" t="n">
         <v>461.551001673367</v>
       </c>
       <c r="R23" t="n">
-        <v>124.4231705463113</v>
+        <v>58.70675067332883</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.38868871718557</v>
+        <v>92.38868871718549</v>
       </c>
       <c r="K25" t="n">
         <v>252.5635338328842</v>
@@ -36604,19 +36604,19 @@
         <v>536.3873078687632</v>
       </c>
       <c r="N26" t="n">
-        <v>549.7270277896168</v>
+        <v>987.0739522016009</v>
       </c>
       <c r="O26" t="n">
-        <v>643.9421942092408</v>
+        <v>505.6216830624902</v>
       </c>
       <c r="P26" t="n">
-        <v>718.4856208771207</v>
+        <v>697.4906181447745</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.551001673367</v>
+        <v>249.2360110134623</v>
       </c>
       <c r="R26" t="n">
-        <v>124.4231705463113</v>
+        <v>58.70675067332883</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>449.8379905920917</v>
       </c>
       <c r="N27" t="n">
-        <v>476.298050451931</v>
+        <v>478.2684592389063</v>
       </c>
       <c r="O27" t="n">
         <v>413.2754262118984</v>
@@ -36695,7 +36695,7 @@
         <v>158.2483419163787</v>
       </c>
       <c r="R27" t="n">
-        <v>1.970408786975913</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>189.562260080603</v>
+        <v>358.6588752526768</v>
       </c>
       <c r="K29" t="n">
-        <v>335.3557174454476</v>
+        <v>659.5011300166124</v>
       </c>
       <c r="L29" t="n">
         <v>453.312928599312</v>
@@ -36844,13 +36844,13 @@
         <v>549.7270277896168</v>
       </c>
       <c r="O29" t="n">
-        <v>643.9421942092408</v>
+        <v>505.6216830624902</v>
       </c>
       <c r="P29" t="n">
-        <v>718.4856208771207</v>
+        <v>396.686912705638</v>
       </c>
       <c r="Q29" t="n">
-        <v>461.551001673367</v>
+        <v>428.4281932483622</v>
       </c>
       <c r="R29" t="n">
         <v>124.4231705463113</v>
@@ -36911,7 +36911,7 @@
         <v>93.8940572533341</v>
       </c>
       <c r="K30" t="n">
-        <v>239.4241664702661</v>
+        <v>241.3945752572416</v>
       </c>
       <c r="L30" t="n">
         <v>368.7257842078534</v>
@@ -36932,7 +36932,7 @@
         <v>158.2483419163787</v>
       </c>
       <c r="R30" t="n">
-        <v>1.970408786975913</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>335.3557174454476</v>
       </c>
       <c r="L32" t="n">
-        <v>453.312928599312</v>
+        <v>488.8646690162047</v>
       </c>
       <c r="M32" t="n">
         <v>536.3873078687632</v>
@@ -37081,16 +37081,16 @@
         <v>549.7270277896168</v>
       </c>
       <c r="O32" t="n">
-        <v>643.9421942092408</v>
+        <v>886.4218643252356</v>
       </c>
       <c r="P32" t="n">
         <v>718.4856208771207</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.551001673367</v>
+        <v>249.2360110134623</v>
       </c>
       <c r="R32" t="n">
-        <v>124.4231705463113</v>
+        <v>58.70675067332883</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>239.4241664702661</v>
       </c>
       <c r="L33" t="n">
-        <v>368.7257842078534</v>
+        <v>370.6961929948289</v>
       </c>
       <c r="M33" t="n">
         <v>449.8379905920917</v>
@@ -37169,7 +37169,7 @@
         <v>158.2483419163787</v>
       </c>
       <c r="R33" t="n">
-        <v>1.970408786975913</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.38868871718547</v>
+        <v>92.38868871718546</v>
       </c>
       <c r="K34" t="n">
-        <v>252.5635338328842</v>
+        <v>252.5635338328841</v>
       </c>
       <c r="L34" t="n">
         <v>366.062937085828</v>
@@ -37309,22 +37309,22 @@
         <v>335.3557174454476</v>
       </c>
       <c r="L35" t="n">
-        <v>453.312928599312</v>
+        <v>870.9741431497624</v>
       </c>
       <c r="M35" t="n">
-        <v>536.3873078687632</v>
+        <v>791.1603032964507</v>
       </c>
       <c r="N35" t="n">
         <v>549.7270277896168</v>
       </c>
       <c r="O35" t="n">
-        <v>643.9421942092408</v>
+        <v>505.6216830624902</v>
       </c>
       <c r="P35" t="n">
-        <v>718.4856208771207</v>
+        <v>396.686912705638</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.551001673367</v>
+        <v>249.2360110134623</v>
       </c>
       <c r="R35" t="n">
         <v>124.4231705463113</v>
@@ -37400,13 +37400,13 @@
         <v>413.2754262118984</v>
       </c>
       <c r="P36" t="n">
-        <v>312.1616147995407</v>
+        <v>314.1320235865163</v>
       </c>
       <c r="Q36" t="n">
         <v>158.2483419163787</v>
       </c>
       <c r="R36" t="n">
-        <v>1.970408786975913</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.38868871718549</v>
+        <v>92.38868871718546</v>
       </c>
       <c r="K37" t="n">
-        <v>252.5635338328842</v>
+        <v>252.5635338328841</v>
       </c>
       <c r="L37" t="n">
         <v>366.062937085828</v>
@@ -37555,10 +37555,10 @@
         <v>549.7270277896168</v>
       </c>
       <c r="O38" t="n">
-        <v>643.9421942092417</v>
+        <v>886.4218643252356</v>
       </c>
       <c r="P38" t="n">
-        <v>718.4856208771207</v>
+        <v>476.0059507611261</v>
       </c>
       <c r="Q38" t="n">
         <v>461.551001673367</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.38868871718547</v>
+        <v>92.38868871718546</v>
       </c>
       <c r="K40" t="n">
-        <v>252.5635338328842</v>
+        <v>252.5635338328841</v>
       </c>
       <c r="L40" t="n">
-        <v>366.062937085828</v>
+        <v>366.0629370858279</v>
       </c>
       <c r="M40" t="n">
         <v>393.8866317650345</v>
       </c>
       <c r="N40" t="n">
-        <v>391.1343246842792</v>
+        <v>391.1343246842791</v>
       </c>
       <c r="O40" t="n">
         <v>348.7061236090545</v>
       </c>
       <c r="P40" t="n">
-        <v>281.4421110432392</v>
+        <v>281.4421110432397</v>
       </c>
       <c r="Q40" t="n">
         <v>125.1201279781102</v>
@@ -37783,25 +37783,25 @@
         <v>335.3557174454476</v>
       </c>
       <c r="L41" t="n">
-        <v>453.312928599312</v>
+        <v>870.9741431497624</v>
       </c>
       <c r="M41" t="n">
         <v>536.3873078687632</v>
       </c>
       <c r="N41" t="n">
-        <v>549.7270277896168</v>
+        <v>870.2164430902866</v>
       </c>
       <c r="O41" t="n">
-        <v>643.9421942092399</v>
+        <v>505.6216830624902</v>
       </c>
       <c r="P41" t="n">
-        <v>718.4856208771207</v>
+        <v>396.686912705638</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.551001673367</v>
+        <v>249.2360110134623</v>
       </c>
       <c r="R41" t="n">
-        <v>124.4231705463113</v>
+        <v>58.70675067332883</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>449.8379905920917</v>
       </c>
       <c r="N42" t="n">
-        <v>476.298050451931</v>
+        <v>478.2684592389063</v>
       </c>
       <c r="O42" t="n">
         <v>413.2754262118984</v>
@@ -37880,7 +37880,7 @@
         <v>158.2483419163787</v>
       </c>
       <c r="R42" t="n">
-        <v>1.970408786975913</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.38868871718546</v>
+        <v>92.38868871718552</v>
       </c>
       <c r="K43" t="n">
-        <v>252.5635338328841</v>
+        <v>252.5635338328842</v>
       </c>
       <c r="L43" t="n">
         <v>366.062937085828</v>
       </c>
       <c r="M43" t="n">
-        <v>393.8866317650345</v>
+        <v>393.8866317650346</v>
       </c>
       <c r="N43" t="n">
         <v>391.1343246842791</v>
       </c>
       <c r="O43" t="n">
-        <v>348.7061236090545</v>
+        <v>348.7061236090546</v>
       </c>
       <c r="P43" t="n">
         <v>281.4421110432392</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>189.562260080603</v>
+        <v>358.6588752526768</v>
       </c>
       <c r="K44" t="n">
-        <v>335.3557174454476</v>
+        <v>389.1797787586784</v>
       </c>
       <c r="L44" t="n">
         <v>453.312928599312</v>
       </c>
       <c r="M44" t="n">
-        <v>536.3873078687632</v>
+        <v>985.9008413615957</v>
       </c>
       <c r="N44" t="n">
-        <v>987.0739522016009</v>
+        <v>549.7270277896168</v>
       </c>
       <c r="O44" t="n">
         <v>505.6216830624902</v>
       </c>
       <c r="P44" t="n">
-        <v>419.4592076118886</v>
+        <v>396.686912705638</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.551001673367</v>
+        <v>249.2360110134623</v>
       </c>
       <c r="R44" t="n">
         <v>124.4231705463113</v>
@@ -38096,7 +38096,7 @@
         <v>93.8940572533341</v>
       </c>
       <c r="K45" t="n">
-        <v>239.4241664702661</v>
+        <v>241.3945752572416</v>
       </c>
       <c r="L45" t="n">
         <v>368.7257842078534</v>
@@ -38117,7 +38117,7 @@
         <v>158.2483419163787</v>
       </c>
       <c r="R45" t="n">
-        <v>1.970408786975913</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.3886887171861</v>
+        <v>92.38868871718552</v>
       </c>
       <c r="K46" t="n">
-        <v>252.5635338328841</v>
+        <v>252.5635338328842</v>
       </c>
       <c r="L46" t="n">
-        <v>366.0629370858279</v>
+        <v>366.062937085828</v>
       </c>
       <c r="M46" t="n">
-        <v>393.8866317650345</v>
+        <v>393.8866317650346</v>
       </c>
       <c r="N46" t="n">
         <v>391.1343246842791</v>
       </c>
       <c r="O46" t="n">
-        <v>348.7061236090545</v>
+        <v>348.7061236090546</v>
       </c>
       <c r="P46" t="n">
         <v>281.4421110432392</v>
